--- a/Docs/Latest/targets_2017.xlsx
+++ b/Docs/Latest/targets_2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>District</t>
   </si>
@@ -380,17 +380,49 @@
   </si>
   <si>
     <t>2017 Monthly Consumption targets</t>
+  </si>
+  <si>
+    <t>Bunyangabu</t>
+  </si>
+  <si>
+    <t>Butebo</t>
+  </si>
+  <si>
+    <t>Kagadi</t>
+  </si>
+  <si>
+    <t>Kakumiro</t>
+  </si>
+  <si>
+    <t>Kyotera</t>
+  </si>
+  <si>
+    <t>Namisindwa</t>
+  </si>
+  <si>
+    <t>Omoro</t>
+  </si>
+  <si>
+    <t>Pakwach</t>
+  </si>
+  <si>
+    <t>Rubanda</t>
+  </si>
+  <si>
+    <t>Rukiga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +451,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -434,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -457,23 +504,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,25 +922,25 @@
       <c r="B6" s="7">
         <v>515.7166666666667</v>
       </c>
-      <c r="C6" s="7">
-        <v>1828.9333333333332</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1371.6999999999998</v>
-      </c>
-      <c r="E6" s="7">
-        <v>12228.333333333332</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1371.6999999999998</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="C6" s="8">
         <v>457.23333333333329</v>
       </c>
-      <c r="H6" s="7">
+      <c r="D6" s="8">
         <v>457.23333333333329</v>
       </c>
-      <c r="I6" s="7">
+      <c r="E6" s="8">
+        <v>2445.6666666666665</v>
+      </c>
+      <c r="F6" s="8">
+        <v>457.23333333333329</v>
+      </c>
+      <c r="G6" s="8">
+        <v>457.23333333333329</v>
+      </c>
+      <c r="H6" s="8">
+        <v>457.23333333333329</v>
+      </c>
+      <c r="I6" s="8">
         <v>233.93333333333331</v>
       </c>
     </row>
@@ -865,25 +951,25 @@
       <c r="B7" s="7">
         <v>927.5625</v>
       </c>
-      <c r="C7" s="7">
-        <v>3289.5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2467.125</v>
-      </c>
-      <c r="E7" s="7">
-        <v>21993.75</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2467.125</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="C7" s="8">
         <v>822.375</v>
       </c>
-      <c r="H7" s="7">
+      <c r="D7" s="8">
         <v>822.375</v>
       </c>
-      <c r="I7" s="7">
+      <c r="E7" s="8">
+        <v>4398.75</v>
+      </c>
+      <c r="F7" s="8">
+        <v>822.375</v>
+      </c>
+      <c r="G7" s="8">
+        <v>822.375</v>
+      </c>
+      <c r="H7" s="8">
+        <v>822.375</v>
+      </c>
+      <c r="I7" s="8">
         <v>420.75</v>
       </c>
     </row>
@@ -894,25 +980,25 @@
       <c r="B8" s="7">
         <v>961.91666666666663</v>
       </c>
-      <c r="C8" s="7">
-        <v>3411.3333333333335</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2558.5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>22808.333333333336</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2558.5</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="C8" s="8">
         <v>852.83333333333337</v>
       </c>
-      <c r="H8" s="7">
+      <c r="D8" s="8">
         <v>852.83333333333337</v>
       </c>
-      <c r="I8" s="7">
+      <c r="E8" s="8">
+        <v>4561.666666666667</v>
+      </c>
+      <c r="F8" s="8">
+        <v>852.83333333333337</v>
+      </c>
+      <c r="G8" s="8">
+        <v>852.83333333333337</v>
+      </c>
+      <c r="H8" s="8">
+        <v>852.83333333333337</v>
+      </c>
+      <c r="I8" s="8">
         <v>436.33333333333331</v>
       </c>
     </row>
@@ -923,25 +1009,25 @@
       <c r="B9" s="7">
         <v>988.5916666666667</v>
       </c>
-      <c r="C9" s="7">
-        <v>3505.9333333333329</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2629.45</v>
-      </c>
-      <c r="E9" s="7">
-        <v>23440.833333333336</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2629.45</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="C9" s="8">
         <v>876.48333333333323</v>
       </c>
-      <c r="H9" s="7">
+      <c r="D9" s="8">
         <v>876.48333333333323</v>
       </c>
-      <c r="I9" s="7">
+      <c r="E9" s="8">
+        <v>4688.166666666667</v>
+      </c>
+      <c r="F9" s="8">
+        <v>876.48333333333323</v>
+      </c>
+      <c r="G9" s="8">
+        <v>876.48333333333323</v>
+      </c>
+      <c r="H9" s="8">
+        <v>876.48333333333323</v>
+      </c>
+      <c r="I9" s="8">
         <v>448.43333333333334</v>
       </c>
     </row>
@@ -952,25 +1038,25 @@
       <c r="B10" s="7">
         <v>653.13333333333333</v>
       </c>
-      <c r="C10" s="7">
-        <v>2316.2666666666664</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1737.1999999999998</v>
-      </c>
-      <c r="E10" s="7">
-        <v>15486.666666666668</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1737.1999999999998</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="C10" s="8">
         <v>579.06666666666661</v>
       </c>
-      <c r="H10" s="7">
+      <c r="D10" s="8">
         <v>579.06666666666661</v>
       </c>
-      <c r="I10" s="7">
+      <c r="E10" s="8">
+        <v>3097.3333333333335</v>
+      </c>
+      <c r="F10" s="8">
+        <v>579.06666666666661</v>
+      </c>
+      <c r="G10" s="8">
+        <v>579.06666666666661</v>
+      </c>
+      <c r="H10" s="8">
+        <v>579.06666666666661</v>
+      </c>
+      <c r="I10" s="8">
         <v>296.26666666666665</v>
       </c>
     </row>
@@ -981,25 +1067,25 @@
       <c r="B11" s="7">
         <v>479.3416666666667</v>
       </c>
-      <c r="C11" s="7">
-        <v>1699.9333333333332</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1274.9499999999998</v>
-      </c>
-      <c r="E11" s="7">
-        <v>11365.833333333332</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1274.9499999999998</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="C11" s="8">
         <v>424.98333333333329</v>
       </c>
-      <c r="H11" s="7">
+      <c r="D11" s="8">
         <v>424.98333333333329</v>
       </c>
-      <c r="I11" s="7">
+      <c r="E11" s="8">
+        <v>2273.1666666666665</v>
+      </c>
+      <c r="F11" s="8">
+        <v>424.98333333333329</v>
+      </c>
+      <c r="G11" s="8">
+        <v>424.98333333333329</v>
+      </c>
+      <c r="H11" s="8">
+        <v>424.98333333333329</v>
+      </c>
+      <c r="I11" s="8">
         <v>217.43333333333331</v>
       </c>
     </row>
@@ -1010,25 +1096,25 @@
       <c r="B12" s="7">
         <v>1198.3541666666667</v>
       </c>
-      <c r="C12" s="7">
-        <v>4249.833333333333</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3187.375</v>
-      </c>
-      <c r="E12" s="7">
-        <v>28414.583333333336</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3187.375</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="C12" s="8">
         <v>1062.4583333333333</v>
       </c>
-      <c r="H12" s="7">
+      <c r="D12" s="8">
         <v>1062.4583333333333</v>
       </c>
-      <c r="I12" s="7">
+      <c r="E12" s="8">
+        <v>5682.916666666667</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1062.4583333333333</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1062.4583333333333</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1062.4583333333333</v>
+      </c>
+      <c r="I12" s="8">
         <v>543.58333333333337</v>
       </c>
     </row>
@@ -1039,25 +1125,25 @@
       <c r="B13" s="7">
         <v>807.92916666666667</v>
       </c>
-      <c r="C13" s="7">
-        <v>2865.2333333333331</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2148.9249999999997</v>
-      </c>
-      <c r="E13" s="7">
-        <v>19157.083333333332</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2148.9249999999997</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="C13" s="8">
         <v>716.30833333333328</v>
       </c>
-      <c r="H13" s="7">
+      <c r="D13" s="8">
         <v>716.30833333333328</v>
       </c>
-      <c r="I13" s="7">
+      <c r="E13" s="8">
+        <v>3831.4166666666665</v>
+      </c>
+      <c r="F13" s="8">
+        <v>716.30833333333328</v>
+      </c>
+      <c r="G13" s="8">
+        <v>716.30833333333328</v>
+      </c>
+      <c r="H13" s="8">
+        <v>716.30833333333328</v>
+      </c>
+      <c r="I13" s="8">
         <v>366.48333333333335</v>
       </c>
     </row>
@@ -1068,25 +1154,25 @@
       <c r="B14" s="7">
         <v>1623.1333333333334</v>
       </c>
-      <c r="C14" s="7">
-        <v>5756.2666666666664</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4317.2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>38486.666666666664</v>
-      </c>
-      <c r="F14" s="7">
-        <v>4317.2</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="C14" s="8">
         <v>1439.0666666666666</v>
       </c>
-      <c r="H14" s="7">
+      <c r="D14" s="8">
         <v>1439.0666666666666</v>
       </c>
-      <c r="I14" s="7">
+      <c r="E14" s="8">
+        <v>7697.333333333333</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1439.0666666666666</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1439.0666666666666</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1439.0666666666666</v>
+      </c>
+      <c r="I14" s="8">
         <v>736.26666666666654</v>
       </c>
     </row>
@@ -1097,25 +1183,25 @@
       <c r="B15" s="7">
         <v>3398.6375000000003</v>
       </c>
-      <c r="C15" s="7">
-        <v>12052.9</v>
-      </c>
-      <c r="D15" s="7">
-        <v>9039.6749999999993</v>
-      </c>
-      <c r="E15" s="7">
-        <v>80586.25</v>
-      </c>
-      <c r="F15" s="7">
-        <v>9039.6749999999993</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="C15" s="8">
         <v>3013.2249999999999</v>
       </c>
-      <c r="H15" s="7">
+      <c r="D15" s="8">
         <v>3013.2249999999999</v>
       </c>
-      <c r="I15" s="7">
+      <c r="E15" s="8">
+        <v>16117.25</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3013.2249999999999</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3013.2249999999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3013.2249999999999</v>
+      </c>
+      <c r="I15" s="8">
         <v>1541.6499999999999</v>
       </c>
     </row>
@@ -1126,25 +1212,25 @@
       <c r="B16" s="7">
         <v>920.69166666666672</v>
       </c>
-      <c r="C16" s="7">
-        <v>3265.1333333333332</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2448.85</v>
-      </c>
-      <c r="E16" s="7">
-        <v>21830.833333333336</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2448.85</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="C16" s="8">
         <v>816.2833333333333</v>
       </c>
-      <c r="H16" s="7">
+      <c r="D16" s="8">
         <v>816.2833333333333</v>
       </c>
-      <c r="I16" s="7">
+      <c r="E16" s="8">
+        <v>4366.166666666667</v>
+      </c>
+      <c r="F16" s="8">
+        <v>816.2833333333333</v>
+      </c>
+      <c r="G16" s="8">
+        <v>816.2833333333333</v>
+      </c>
+      <c r="H16" s="8">
+        <v>816.2833333333333</v>
+      </c>
+      <c r="I16" s="8">
         <v>417.63333333333327</v>
       </c>
     </row>
@@ -1155,25 +1241,25 @@
       <c r="B17" s="7">
         <v>957.875</v>
       </c>
-      <c r="C17" s="7">
-        <v>3397</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2547.75</v>
-      </c>
-      <c r="E17" s="7">
-        <v>22712.5</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2547.75</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="C17" s="8">
         <v>849.25</v>
       </c>
-      <c r="H17" s="7">
+      <c r="D17" s="8">
         <v>849.25</v>
       </c>
-      <c r="I17" s="7">
+      <c r="E17" s="8">
+        <v>4542.5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>849.25</v>
+      </c>
+      <c r="G17" s="8">
+        <v>849.25</v>
+      </c>
+      <c r="H17" s="8">
+        <v>849.25</v>
+      </c>
+      <c r="I17" s="8">
         <v>434.5</v>
       </c>
     </row>
@@ -1184,54 +1270,54 @@
       <c r="B18" s="7">
         <v>1721.75</v>
       </c>
-      <c r="C18" s="7">
-        <v>6106</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4579.5</v>
-      </c>
-      <c r="E18" s="7">
-        <v>40825</v>
-      </c>
-      <c r="F18" s="7">
-        <v>4579.5</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="C18" s="8">
         <v>1526.5</v>
       </c>
-      <c r="H18" s="7">
+      <c r="D18" s="8">
         <v>1526.5</v>
       </c>
-      <c r="I18" s="7">
+      <c r="E18" s="8">
+        <v>8165</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1526.5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1526.5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1526.5</v>
+      </c>
+      <c r="I18" s="8">
         <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="7">
         <v>529.86250000000007</v>
       </c>
-      <c r="C19" s="7">
-        <v>1879.0999999999997</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1409.3249999999998</v>
-      </c>
-      <c r="E19" s="7">
-        <v>12563.75</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1409.3249999999998</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="C19" s="8">
         <v>469.77499999999992</v>
       </c>
-      <c r="H19" s="7">
+      <c r="D19" s="8">
         <v>469.77499999999992</v>
       </c>
-      <c r="I19" s="7">
+      <c r="E19" s="8">
+        <v>2512.75</v>
+      </c>
+      <c r="F19" s="8">
+        <v>469.77499999999992</v>
+      </c>
+      <c r="G19" s="8">
+        <v>469.77499999999992</v>
+      </c>
+      <c r="H19" s="8">
+        <v>469.77499999999992</v>
+      </c>
+      <c r="I19" s="8">
         <v>240.35</v>
       </c>
     </row>
@@ -1242,25 +1328,25 @@
       <c r="B20" s="7">
         <v>1799.7541666666666</v>
       </c>
-      <c r="C20" s="7">
-        <v>6382.6333333333323</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4786.9749999999995</v>
-      </c>
-      <c r="E20" s="7">
-        <v>42674.583333333328</v>
-      </c>
-      <c r="F20" s="7">
-        <v>4786.9749999999995</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="C20" s="8">
         <v>1595.6583333333331</v>
       </c>
-      <c r="H20" s="7">
+      <c r="D20" s="8">
         <v>1595.6583333333331</v>
       </c>
-      <c r="I20" s="7">
+      <c r="E20" s="8">
+        <v>8534.9166666666661</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1595.6583333333331</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1595.6583333333331</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1595.6583333333331</v>
+      </c>
+      <c r="I20" s="8">
         <v>816.38333333333321</v>
       </c>
     </row>
@@ -1271,54 +1357,54 @@
       <c r="B21" s="7">
         <v>921.9041666666667</v>
       </c>
-      <c r="C21" s="7">
-        <v>3269.4333333333329</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2452.0749999999998</v>
-      </c>
-      <c r="E21" s="7">
-        <v>21859.583333333336</v>
-      </c>
-      <c r="F21" s="7">
-        <v>2452.0749999999998</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="C21" s="8">
         <v>817.35833333333323</v>
       </c>
-      <c r="H21" s="7">
+      <c r="D21" s="8">
         <v>817.35833333333323</v>
       </c>
-      <c r="I21" s="7">
+      <c r="E21" s="8">
+        <v>4371.916666666667</v>
+      </c>
+      <c r="F21" s="8">
+        <v>817.35833333333323</v>
+      </c>
+      <c r="G21" s="8">
+        <v>817.35833333333323</v>
+      </c>
+      <c r="H21" s="8">
+        <v>817.35833333333323</v>
+      </c>
+      <c r="I21" s="8">
         <v>418.18333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="7">
         <v>619.58749999999998</v>
       </c>
-      <c r="C22" s="7">
-        <v>2197.2999999999997</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1647.9749999999999</v>
-      </c>
-      <c r="E22" s="7">
-        <v>14691.25</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1647.9749999999999</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="C22" s="8">
         <v>549.32499999999993</v>
       </c>
-      <c r="H22" s="7">
+      <c r="D22" s="8">
         <v>549.32499999999993</v>
       </c>
-      <c r="I22" s="7">
+      <c r="E22" s="8">
+        <v>2938.25</v>
+      </c>
+      <c r="F22" s="8">
+        <v>549.32499999999993</v>
+      </c>
+      <c r="G22" s="8">
+        <v>549.32499999999993</v>
+      </c>
+      <c r="H22" s="8">
+        <v>549.32499999999993</v>
+      </c>
+      <c r="I22" s="8">
         <v>281.05</v>
       </c>
     </row>
@@ -1329,25 +1415,25 @@
       <c r="B23" s="7">
         <v>413.86666666666673</v>
       </c>
-      <c r="C23" s="7">
-        <v>1467.7333333333333</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1100.8</v>
-      </c>
-      <c r="E23" s="7">
-        <v>9813.3333333333339</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1100.8</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="C23" s="8">
         <v>366.93333333333334</v>
       </c>
-      <c r="H23" s="7">
+      <c r="D23" s="8">
         <v>366.93333333333334</v>
       </c>
-      <c r="I23" s="7">
+      <c r="E23" s="8">
+        <v>1962.6666666666667</v>
+      </c>
+      <c r="F23" s="8">
+        <v>366.93333333333334</v>
+      </c>
+      <c r="G23" s="8">
+        <v>366.93333333333334</v>
+      </c>
+      <c r="H23" s="8">
+        <v>366.93333333333334</v>
+      </c>
+      <c r="I23" s="8">
         <v>187.73333333333332</v>
       </c>
     </row>
@@ -1358,2723 +1444,3013 @@
       <c r="B24" s="7">
         <v>804.69583333333333</v>
       </c>
-      <c r="C24" s="7">
-        <v>2853.7666666666664</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2140.3249999999998</v>
-      </c>
-      <c r="E24" s="7">
-        <v>19080.416666666668</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2140.3249999999998</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="C24" s="8">
         <v>713.44166666666661</v>
       </c>
-      <c r="H24" s="7">
+      <c r="D24" s="8">
         <v>713.44166666666661</v>
       </c>
-      <c r="I24" s="7">
+      <c r="E24" s="8">
+        <v>3816.0833333333335</v>
+      </c>
+      <c r="F24" s="8">
+        <v>713.44166666666661</v>
+      </c>
+      <c r="G24" s="8">
+        <v>713.44166666666661</v>
+      </c>
+      <c r="H24" s="8">
+        <v>713.44166666666661</v>
+      </c>
+      <c r="I24" s="8">
         <v>365.01666666666665</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="7">
         <v>521.375</v>
       </c>
-      <c r="C25" s="7">
-        <v>1849</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1386.75</v>
-      </c>
-      <c r="E25" s="7">
-        <v>12362.5</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1386.75</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="C25" s="8">
         <v>462.25</v>
       </c>
-      <c r="H25" s="7">
+      <c r="D25" s="8">
         <v>462.25</v>
       </c>
-      <c r="I25" s="7">
+      <c r="E25" s="8">
+        <v>2472.5</v>
+      </c>
+      <c r="F25" s="8">
+        <v>462.25</v>
+      </c>
+      <c r="G25" s="8">
+        <v>462.25</v>
+      </c>
+      <c r="H25" s="8">
+        <v>462.25</v>
+      </c>
+      <c r="I25" s="8">
         <v>236.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="7">
         <v>977.67916666666667</v>
       </c>
-      <c r="C26" s="7">
-        <v>3467.2333333333331</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2600.4249999999997</v>
-      </c>
-      <c r="E26" s="7">
-        <v>23182.083333333336</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2600.4249999999997</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="C26" s="8">
         <v>866.80833333333328</v>
       </c>
-      <c r="H26" s="7">
+      <c r="D26" s="8">
         <v>866.80833333333328</v>
       </c>
-      <c r="I26" s="7">
+      <c r="E26" s="8">
+        <v>4636.416666666667</v>
+      </c>
+      <c r="F26" s="8">
+        <v>866.80833333333328</v>
+      </c>
+      <c r="G26" s="8">
+        <v>866.80833333333328</v>
+      </c>
+      <c r="H26" s="8">
+        <v>866.80833333333328</v>
+      </c>
+      <c r="I26" s="8">
         <v>443.48333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
+      <c r="A27" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B27" s="7">
         <v>732.35</v>
       </c>
-      <c r="C27" s="7">
-        <v>2597.1999999999998</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1947.8999999999999</v>
-      </c>
-      <c r="E27" s="7">
-        <v>17365</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1947.8999999999999</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="C27" s="8">
         <v>649.29999999999995</v>
       </c>
-      <c r="H27" s="7">
+      <c r="D27" s="8">
         <v>649.29999999999995</v>
       </c>
-      <c r="I27" s="7">
+      <c r="E27" s="8">
+        <v>3473</v>
+      </c>
+      <c r="F27" s="8">
+        <v>649.29999999999995</v>
+      </c>
+      <c r="G27" s="8">
+        <v>649.29999999999995</v>
+      </c>
+      <c r="H27" s="8">
+        <v>649.29999999999995</v>
+      </c>
+      <c r="I27" s="8">
         <v>332.2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="7">
         <v>970.80833333333339</v>
       </c>
-      <c r="C28" s="7">
-        <v>3442.8666666666663</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2582.1499999999996</v>
-      </c>
-      <c r="E28" s="7">
-        <v>23019.166666666664</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2582.1499999999996</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="C28" s="8">
         <v>860.71666666666658</v>
       </c>
-      <c r="H28" s="7">
+      <c r="D28" s="8">
         <v>860.71666666666658</v>
       </c>
-      <c r="I28" s="7">
+      <c r="E28" s="8">
+        <v>4603.833333333333</v>
+      </c>
+      <c r="F28" s="8">
+        <v>860.71666666666658</v>
+      </c>
+      <c r="G28" s="8">
+        <v>860.71666666666658</v>
+      </c>
+      <c r="H28" s="8">
+        <v>860.71666666666658</v>
+      </c>
+      <c r="I28" s="8">
         <v>440.36666666666662</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="7">
         <v>1416.2</v>
       </c>
-      <c r="C29" s="7">
-        <v>5022.3999999999996</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3766.7999999999997</v>
-      </c>
-      <c r="E29" s="7">
-        <v>33580</v>
-      </c>
-      <c r="F29" s="7">
-        <v>3766.7999999999997</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="C29" s="8">
         <v>1255.5999999999999</v>
       </c>
-      <c r="H29" s="7">
+      <c r="D29" s="8">
         <v>1255.5999999999999</v>
       </c>
-      <c r="I29" s="7">
+      <c r="E29" s="8">
+        <v>6716</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1255.5999999999999</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1255.5999999999999</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1255.5999999999999</v>
+      </c>
+      <c r="I29" s="8">
         <v>642.4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
+      <c r="A30" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B30" s="7">
         <v>1087.2083333333333</v>
       </c>
-      <c r="C30" s="7">
-        <v>3855.6666666666661</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2891.7499999999995</v>
-      </c>
-      <c r="E30" s="7">
-        <v>25779.166666666664</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2891.7499999999995</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="C30" s="8">
         <v>963.91666666666652</v>
       </c>
-      <c r="H30" s="7">
+      <c r="D30" s="8">
         <v>963.91666666666652</v>
       </c>
-      <c r="I30" s="7">
+      <c r="E30" s="8">
+        <v>5155.833333333333</v>
+      </c>
+      <c r="F30" s="8">
+        <v>963.91666666666652</v>
+      </c>
+      <c r="G30" s="8">
+        <v>963.91666666666652</v>
+      </c>
+      <c r="H30" s="8">
+        <v>963.91666666666652</v>
+      </c>
+      <c r="I30" s="8">
         <v>493.16666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="7">
         <v>419.52500000000003</v>
       </c>
-      <c r="C31" s="7">
-        <v>1487.8</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1115.8499999999999</v>
-      </c>
-      <c r="E31" s="7">
-        <v>9947.5</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1115.8499999999999</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="C31" s="8">
         <v>371.95</v>
       </c>
-      <c r="H31" s="7">
+      <c r="D31" s="8">
         <v>371.95</v>
       </c>
-      <c r="I31" s="7">
+      <c r="E31" s="8">
+        <v>1989.5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>371.95</v>
+      </c>
+      <c r="G31" s="8">
+        <v>371.95</v>
+      </c>
+      <c r="H31" s="8">
+        <v>371.95</v>
+      </c>
+      <c r="I31" s="8">
         <v>190.29999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B32" s="7">
         <v>645.85833333333335</v>
       </c>
-      <c r="C32" s="7">
-        <v>2290.4666666666667</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1717.85</v>
-      </c>
-      <c r="E32" s="7">
-        <v>15314.166666666668</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1717.85</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="C32" s="8">
         <v>572.61666666666667</v>
       </c>
-      <c r="H32" s="7">
+      <c r="D32" s="8">
         <v>572.61666666666667</v>
       </c>
-      <c r="I32" s="7">
+      <c r="E32" s="8">
+        <v>3062.8333333333335</v>
+      </c>
+      <c r="F32" s="8">
+        <v>572.61666666666667</v>
+      </c>
+      <c r="G32" s="8">
+        <v>572.61666666666667</v>
+      </c>
+      <c r="H32" s="8">
+        <v>572.61666666666667</v>
+      </c>
+      <c r="I32" s="8">
         <v>292.96666666666664</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="7">
         <v>431.24583333333334</v>
       </c>
-      <c r="C33" s="7">
-        <v>1529.3666666666666</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1147.0249999999999</v>
-      </c>
-      <c r="E33" s="7">
-        <v>10225.416666666666</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1147.0249999999999</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="C33" s="8">
         <v>382.34166666666664</v>
       </c>
-      <c r="H33" s="7">
+      <c r="D33" s="8">
         <v>382.34166666666664</v>
       </c>
-      <c r="I33" s="7">
+      <c r="E33" s="8">
+        <v>2045.0833333333333</v>
+      </c>
+      <c r="F33" s="8">
+        <v>382.34166666666664</v>
+      </c>
+      <c r="G33" s="8">
+        <v>382.34166666666664</v>
+      </c>
+      <c r="H33" s="8">
+        <v>382.34166666666664</v>
+      </c>
+      <c r="I33" s="8">
         <v>195.61666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>37</v>
+      <c r="A34" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B34" s="7">
         <v>1468.3374999999999</v>
       </c>
-      <c r="C34" s="7">
-        <v>5207.3</v>
-      </c>
-      <c r="D34" s="7">
-        <v>3905.4750000000004</v>
-      </c>
-      <c r="E34" s="7">
-        <v>34816.25</v>
-      </c>
-      <c r="F34" s="7">
-        <v>3905.4750000000004</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="C34" s="8">
         <v>1301.825</v>
       </c>
-      <c r="H34" s="7">
+      <c r="D34" s="8">
         <v>1301.825</v>
       </c>
-      <c r="I34" s="7">
+      <c r="E34" s="8">
+        <v>6963.25</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1301.825</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1301.825</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1301.825</v>
+      </c>
+      <c r="I34" s="8">
         <v>666.05</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7">
         <v>797.82499999999993</v>
       </c>
-      <c r="C35" s="7">
-        <v>2829.3999999999996</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2122.0499999999997</v>
-      </c>
-      <c r="E35" s="7">
-        <v>18917.5</v>
-      </c>
-      <c r="F35" s="7">
-        <v>2122.0499999999997</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="C35" s="8">
         <v>707.34999999999991</v>
       </c>
-      <c r="H35" s="7">
+      <c r="D35" s="8">
         <v>707.34999999999991</v>
       </c>
-      <c r="I35" s="7">
+      <c r="E35" s="8">
+        <v>3783.5</v>
+      </c>
+      <c r="F35" s="8">
+        <v>707.34999999999991</v>
+      </c>
+      <c r="G35" s="8">
+        <v>707.34999999999991</v>
+      </c>
+      <c r="H35" s="8">
+        <v>707.34999999999991</v>
+      </c>
+      <c r="I35" s="8">
         <v>361.90000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>39</v>
+      <c r="A36" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B36" s="7">
         <v>670.51250000000005</v>
       </c>
-      <c r="C36" s="7">
-        <v>2377.9</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1783.4250000000002</v>
-      </c>
-      <c r="E36" s="7">
-        <v>15898.75</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1783.4250000000002</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="C36" s="8">
         <v>594.47500000000002</v>
       </c>
-      <c r="H36" s="7">
+      <c r="D36" s="8">
         <v>594.47500000000002</v>
       </c>
-      <c r="I36" s="7">
+      <c r="E36" s="8">
+        <v>3179.75</v>
+      </c>
+      <c r="F36" s="8">
+        <v>594.47500000000002</v>
+      </c>
+      <c r="G36" s="8">
+        <v>594.47500000000002</v>
+      </c>
+      <c r="H36" s="8">
+        <v>594.47500000000002</v>
+      </c>
+      <c r="I36" s="8">
         <v>304.14999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>40</v>
+      <c r="A37" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B37" s="7">
         <v>1203.2041666666667</v>
       </c>
-      <c r="C37" s="7">
-        <v>4267.0333333333328</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3200.2749999999996</v>
-      </c>
-      <c r="E37" s="7">
-        <v>28529.583333333336</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3200.2749999999996</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="C37" s="8">
         <v>1066.7583333333332</v>
       </c>
-      <c r="H37" s="7">
+      <c r="D37" s="8">
         <v>1066.7583333333332</v>
       </c>
-      <c r="I37" s="7">
+      <c r="E37" s="8">
+        <v>5705.916666666667</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1066.7583333333332</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1066.7583333333332</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1066.7583333333332</v>
+      </c>
+      <c r="I37" s="8">
         <v>545.7833333333333</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="7">
         <v>2596.3666666666668</v>
       </c>
-      <c r="C38" s="7">
-        <v>9207.7333333333318</v>
-      </c>
-      <c r="D38" s="7">
-        <v>6905.7999999999993</v>
-      </c>
-      <c r="E38" s="7">
-        <v>61563.333333333328</v>
-      </c>
-      <c r="F38" s="7">
-        <v>6905.7999999999993</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="C38" s="8">
         <v>2301.9333333333329</v>
       </c>
-      <c r="H38" s="7">
+      <c r="D38" s="8">
         <v>2301.9333333333329</v>
       </c>
-      <c r="I38" s="7">
+      <c r="E38" s="8">
+        <v>12312.666666666666</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2301.9333333333329</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2301.9333333333329</v>
+      </c>
+      <c r="H38" s="8">
+        <v>2301.9333333333329</v>
+      </c>
+      <c r="I38" s="8">
         <v>1177.7333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>42</v>
+      <c r="A39" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B39" s="7">
         <v>1057.7041666666667</v>
       </c>
-      <c r="C39" s="7">
-        <v>3751.0333333333328</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2813.2749999999996</v>
-      </c>
-      <c r="E39" s="7">
-        <v>25079.583333333336</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2813.2749999999996</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="C39" s="8">
         <v>937.75833333333321</v>
       </c>
-      <c r="H39" s="7">
+      <c r="D39" s="8">
         <v>937.75833333333321</v>
       </c>
-      <c r="I39" s="7">
+      <c r="E39" s="8">
+        <v>5015.916666666667</v>
+      </c>
+      <c r="F39" s="8">
+        <v>937.75833333333321</v>
+      </c>
+      <c r="G39" s="8">
+        <v>937.75833333333321</v>
+      </c>
+      <c r="H39" s="8">
+        <v>937.75833333333321</v>
+      </c>
+      <c r="I39" s="8">
         <v>479.7833333333333</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="7">
         <v>2199.0708333333337</v>
       </c>
-      <c r="C40" s="7">
-        <v>7798.7666666666664</v>
-      </c>
-      <c r="D40" s="7">
-        <v>5849.0749999999998</v>
-      </c>
-      <c r="E40" s="7">
-        <v>52142.916666666672</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5849.0749999999998</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="C40" s="8">
         <v>1949.6916666666666</v>
       </c>
-      <c r="H40" s="7">
+      <c r="D40" s="8">
         <v>1949.6916666666666</v>
       </c>
-      <c r="I40" s="7">
+      <c r="E40" s="8">
+        <v>10428.583333333334</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1949.6916666666666</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1949.6916666666666</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1949.6916666666666</v>
+      </c>
+      <c r="I40" s="8">
         <v>997.51666666666654</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="7">
         <v>2162.2916666666665</v>
       </c>
-      <c r="C41" s="7">
-        <v>7668.3333333333321</v>
-      </c>
-      <c r="D41" s="7">
-        <v>5751.2499999999991</v>
-      </c>
-      <c r="E41" s="7">
-        <v>51270.833333333328</v>
-      </c>
-      <c r="F41" s="7">
-        <v>5751.2499999999991</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="C41" s="8">
         <v>1917.083333333333</v>
       </c>
-      <c r="H41" s="7">
+      <c r="D41" s="8">
         <v>1917.083333333333</v>
       </c>
-      <c r="I41" s="7">
+      <c r="E41" s="8">
+        <v>10254.166666666666</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1917.083333333333</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1917.083333333333</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1917.083333333333</v>
+      </c>
+      <c r="I41" s="8">
         <v>980.83333333333337</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>45</v>
+      <c r="A42" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B42" s="7">
         <v>1980.8208333333334</v>
       </c>
-      <c r="C42" s="7">
-        <v>7024.7666666666664</v>
-      </c>
-      <c r="D42" s="7">
-        <v>5268.5749999999998</v>
-      </c>
-      <c r="E42" s="7">
-        <v>46967.916666666672</v>
-      </c>
-      <c r="F42" s="7">
-        <v>5268.5749999999998</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="C42" s="8">
         <v>1756.1916666666666</v>
       </c>
-      <c r="H42" s="7">
+      <c r="D42" s="8">
         <v>1756.1916666666666</v>
       </c>
-      <c r="I42" s="7">
+      <c r="E42" s="8">
+        <v>9393.5833333333339</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1756.1916666666666</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1756.1916666666666</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1756.1916666666666</v>
+      </c>
+      <c r="I42" s="8">
         <v>898.51666666666654</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>46</v>
+      <c r="A43" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B43" s="7">
         <v>725.07499999999993</v>
       </c>
-      <c r="C43" s="7">
-        <v>2571.4</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1928.5500000000002</v>
-      </c>
-      <c r="E43" s="7">
-        <v>17192.5</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1928.5500000000002</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="C43" s="8">
         <v>642.85</v>
       </c>
-      <c r="H43" s="7">
+      <c r="D43" s="8">
         <v>642.85</v>
       </c>
-      <c r="I43" s="7">
+      <c r="E43" s="8">
+        <v>3438.5</v>
+      </c>
+      <c r="F43" s="8">
+        <v>642.85</v>
+      </c>
+      <c r="G43" s="8">
+        <v>642.85</v>
+      </c>
+      <c r="H43" s="8">
+        <v>642.85</v>
+      </c>
+      <c r="I43" s="8">
         <v>328.9</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7">
         <v>963.12916666666672</v>
       </c>
-      <c r="C44" s="7">
-        <v>3415.6333333333332</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2561.7249999999999</v>
-      </c>
-      <c r="E44" s="7">
-        <v>22837.083333333336</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2561.7249999999999</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="C44" s="8">
         <v>853.9083333333333</v>
       </c>
-      <c r="H44" s="7">
+      <c r="D44" s="8">
         <v>853.9083333333333</v>
       </c>
-      <c r="I44" s="7">
+      <c r="E44" s="8">
+        <v>4567.416666666667</v>
+      </c>
+      <c r="F44" s="8">
+        <v>853.9083333333333</v>
+      </c>
+      <c r="G44" s="8">
+        <v>853.9083333333333</v>
+      </c>
+      <c r="H44" s="8">
+        <v>853.9083333333333</v>
+      </c>
+      <c r="I44" s="8">
         <v>436.88333333333327</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>48</v>
+      <c r="A45" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B45" s="7">
         <v>1277.5708333333334</v>
       </c>
-      <c r="C45" s="7">
-        <v>4530.7666666666664</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3398.0749999999998</v>
-      </c>
-      <c r="E45" s="7">
-        <v>30292.916666666664</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3398.0749999999998</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="C45" s="8">
         <v>1132.6916666666666</v>
       </c>
-      <c r="H45" s="7">
+      <c r="D45" s="8">
         <v>1132.6916666666666</v>
       </c>
-      <c r="I45" s="7">
+      <c r="E45" s="8">
+        <v>6058.583333333333</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1132.6916666666666</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1132.6916666666666</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1132.6916666666666</v>
+      </c>
+      <c r="I45" s="8">
         <v>579.51666666666665</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="7">
         <v>970</v>
       </c>
-      <c r="C46" s="7">
-        <v>3440</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2580</v>
-      </c>
-      <c r="E46" s="7">
-        <v>23000</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2580</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="C46" s="8">
         <v>860</v>
       </c>
-      <c r="H46" s="7">
+      <c r="D46" s="8">
         <v>860</v>
       </c>
-      <c r="I46" s="7">
+      <c r="E46" s="8">
+        <v>4600</v>
+      </c>
+      <c r="F46" s="8">
+        <v>860</v>
+      </c>
+      <c r="G46" s="8">
+        <v>860</v>
+      </c>
+      <c r="H46" s="8">
+        <v>860</v>
+      </c>
+      <c r="I46" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>50</v>
+      <c r="A47" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B47" s="7">
         <v>1560.4875000000002</v>
       </c>
-      <c r="C47" s="7">
-        <v>5534.0999999999995</v>
-      </c>
-      <c r="D47" s="7">
-        <v>4150.5749999999998</v>
-      </c>
-      <c r="E47" s="7">
-        <v>37001.25</v>
-      </c>
-      <c r="F47" s="7">
-        <v>4150.5749999999998</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="C47" s="8">
         <v>1383.5249999999999</v>
       </c>
-      <c r="H47" s="7">
+      <c r="D47" s="8">
         <v>1383.5249999999999</v>
       </c>
-      <c r="I47" s="7">
+      <c r="E47" s="8">
+        <v>7400.25</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1383.5249999999999</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1383.5249999999999</v>
+      </c>
+      <c r="H47" s="8">
+        <v>1383.5249999999999</v>
+      </c>
+      <c r="I47" s="8">
         <v>707.84999999999991</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>51</v>
+      <c r="A48" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="B48" s="7">
         <v>1489.7583333333334</v>
       </c>
-      <c r="C48" s="7">
-        <v>5283.2666666666664</v>
-      </c>
-      <c r="D48" s="7">
-        <v>3962.45</v>
-      </c>
-      <c r="E48" s="7">
-        <v>35324.166666666664</v>
-      </c>
-      <c r="F48" s="7">
-        <v>3962.45</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="C48" s="8">
         <v>1320.8166666666666</v>
       </c>
-      <c r="H48" s="7">
+      <c r="D48" s="8">
         <v>1320.8166666666666</v>
       </c>
-      <c r="I48" s="7">
+      <c r="E48" s="8">
+        <v>7064.833333333333</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1320.8166666666666</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1320.8166666666666</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1320.8166666666666</v>
+      </c>
+      <c r="I48" s="8">
         <v>675.76666666666665</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7">
         <v>242.5</v>
       </c>
-      <c r="C49" s="7">
-        <v>860</v>
-      </c>
-      <c r="D49" s="7">
-        <v>645</v>
-      </c>
-      <c r="E49" s="7">
-        <v>5750</v>
-      </c>
-      <c r="F49" s="7">
-        <v>645</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="C49" s="8">
         <v>215</v>
       </c>
-      <c r="H49" s="7">
+      <c r="D49" s="8">
         <v>215</v>
       </c>
-      <c r="I49" s="7">
+      <c r="E49" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F49" s="8">
+        <v>215</v>
+      </c>
+      <c r="G49" s="8">
+        <v>215</v>
+      </c>
+      <c r="H49" s="8">
+        <v>215</v>
+      </c>
+      <c r="I49" s="8">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>53</v>
+      <c r="A50" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="7">
         <v>1048.0041666666668</v>
       </c>
-      <c r="C50" s="7">
-        <v>3716.6333333333332</v>
-      </c>
-      <c r="D50" s="7">
-        <v>2787.4749999999999</v>
-      </c>
-      <c r="E50" s="7">
-        <v>24849.583333333336</v>
-      </c>
-      <c r="F50" s="7">
-        <v>2787.4749999999999</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="C50" s="8">
         <v>929.1583333333333</v>
       </c>
-      <c r="H50" s="7">
+      <c r="D50" s="8">
         <v>929.1583333333333</v>
       </c>
-      <c r="I50" s="7">
+      <c r="E50" s="8">
+        <v>4969.916666666667</v>
+      </c>
+      <c r="F50" s="8">
+        <v>929.1583333333333</v>
+      </c>
+      <c r="G50" s="8">
+        <v>929.1583333333333</v>
+      </c>
+      <c r="H50" s="8">
+        <v>929.1583333333333</v>
+      </c>
+      <c r="I50" s="8">
         <v>475.38333333333327</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>54</v>
+      <c r="A51" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B51" s="7">
         <v>758.62083333333339</v>
       </c>
-      <c r="C51" s="7">
-        <v>2690.3666666666663</v>
-      </c>
-      <c r="D51" s="7">
-        <v>2017.7749999999996</v>
-      </c>
-      <c r="E51" s="7">
-        <v>17987.916666666668</v>
-      </c>
-      <c r="F51" s="7">
-        <v>2017.7749999999996</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="C51" s="8">
         <v>672.59166666666658</v>
       </c>
-      <c r="H51" s="7">
+      <c r="D51" s="8">
         <v>672.59166666666658</v>
       </c>
-      <c r="I51" s="7">
+      <c r="E51" s="8">
+        <v>3597.5833333333335</v>
+      </c>
+      <c r="F51" s="8">
+        <v>672.59166666666658</v>
+      </c>
+      <c r="G51" s="8">
+        <v>672.59166666666658</v>
+      </c>
+      <c r="H51" s="8">
+        <v>672.59166666666658</v>
+      </c>
+      <c r="I51" s="8">
         <v>344.11666666666662</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="7">
         <v>6397.958333333333</v>
       </c>
-      <c r="C52" s="7">
-        <v>22689.666666666668</v>
-      </c>
-      <c r="D52" s="7">
-        <v>17017.25</v>
-      </c>
-      <c r="E52" s="7">
-        <v>151704.16666666666</v>
-      </c>
-      <c r="F52" s="7">
-        <v>17017.25</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="C52" s="8">
         <v>5672.416666666667</v>
       </c>
-      <c r="H52" s="7">
+      <c r="D52" s="8">
         <v>5672.416666666667</v>
       </c>
-      <c r="I52" s="7">
+      <c r="E52" s="8">
+        <v>30340.833333333332</v>
+      </c>
+      <c r="F52" s="8">
+        <v>5672.416666666667</v>
+      </c>
+      <c r="G52" s="8">
+        <v>5672.416666666667</v>
+      </c>
+      <c r="H52" s="8">
+        <v>5672.416666666667</v>
+      </c>
+      <c r="I52" s="8">
         <v>2902.1666666666665</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>56</v>
+      <c r="A53" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="7">
         <v>2094.3916666666669</v>
       </c>
-      <c r="C53" s="7">
-        <v>7427.5333333333328</v>
-      </c>
-      <c r="D53" s="7">
-        <v>5570.65</v>
-      </c>
-      <c r="E53" s="7">
-        <v>49660.833333333328</v>
-      </c>
-      <c r="F53" s="7">
-        <v>5570.65</v>
-      </c>
-      <c r="G53" s="7">
+      <c r="C53" s="8">
         <v>1856.8833333333332</v>
       </c>
-      <c r="H53" s="7">
+      <c r="D53" s="8">
         <v>1856.8833333333332</v>
       </c>
-      <c r="I53" s="7">
+      <c r="E53" s="8">
+        <v>9932.1666666666661</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1856.8833333333332</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1856.8833333333332</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1856.8833333333332</v>
+      </c>
+      <c r="I53" s="8">
         <v>950.0333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="7">
         <v>1851.4875000000002</v>
       </c>
-      <c r="C54" s="7">
-        <v>6566.0999999999995</v>
-      </c>
-      <c r="D54" s="7">
-        <v>4924.5749999999998</v>
-      </c>
-      <c r="E54" s="7">
-        <v>43901.25</v>
-      </c>
-      <c r="F54" s="7">
-        <v>4924.5749999999998</v>
-      </c>
-      <c r="G54" s="7">
+      <c r="C54" s="8">
         <v>1641.5249999999999</v>
       </c>
-      <c r="H54" s="7">
+      <c r="D54" s="8">
         <v>1641.5249999999999</v>
       </c>
-      <c r="I54" s="7">
+      <c r="E54" s="8">
+        <v>8780.25</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1641.5249999999999</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1641.5249999999999</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1641.5249999999999</v>
+      </c>
+      <c r="I54" s="8">
         <v>839.84999999999991</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="7">
         <v>1063.3625</v>
       </c>
-      <c r="C55" s="7">
-        <v>3771.1</v>
-      </c>
-      <c r="D55" s="7">
-        <v>2828.3249999999998</v>
-      </c>
-      <c r="E55" s="7">
-        <v>25213.75</v>
-      </c>
-      <c r="F55" s="7">
-        <v>2828.3249999999998</v>
-      </c>
-      <c r="G55" s="7">
+      <c r="C55" s="8">
         <v>942.77499999999998</v>
       </c>
-      <c r="H55" s="7">
+      <c r="D55" s="8">
         <v>942.77499999999998</v>
       </c>
-      <c r="I55" s="7">
+      <c r="E55" s="8">
+        <v>5042.75</v>
+      </c>
+      <c r="F55" s="8">
+        <v>942.77499999999998</v>
+      </c>
+      <c r="G55" s="8">
+        <v>942.77499999999998</v>
+      </c>
+      <c r="H55" s="8">
+        <v>942.77499999999998</v>
+      </c>
+      <c r="I55" s="8">
         <v>482.34999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>59</v>
+      <c r="A56" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B56" s="7">
         <v>458.72916666666669</v>
       </c>
-      <c r="C56" s="7">
-        <v>1626.8333333333333</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1220.125</v>
-      </c>
-      <c r="E56" s="7">
-        <v>10877.083333333332</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1220.125</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="C56" s="8">
         <v>406.70833333333331</v>
       </c>
-      <c r="H56" s="7">
+      <c r="D56" s="8">
         <v>406.70833333333331</v>
       </c>
-      <c r="I56" s="7">
+      <c r="E56" s="8">
+        <v>2175.4166666666665</v>
+      </c>
+      <c r="F56" s="8">
+        <v>406.70833333333331</v>
+      </c>
+      <c r="G56" s="8">
+        <v>406.70833333333331</v>
+      </c>
+      <c r="H56" s="8">
+        <v>406.70833333333331</v>
+      </c>
+      <c r="I56" s="8">
         <v>208.08333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>60</v>
+      <c r="A57" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B57" s="7">
         <v>2983.9625000000001</v>
       </c>
-      <c r="C57" s="7">
-        <v>10582.3</v>
-      </c>
-      <c r="D57" s="7">
-        <v>7936.7249999999995</v>
-      </c>
-      <c r="E57" s="7">
-        <v>70753.75</v>
-      </c>
-      <c r="F57" s="7">
-        <v>7936.7249999999995</v>
-      </c>
-      <c r="G57" s="7">
+      <c r="C57" s="8">
         <v>2645.5749999999998</v>
       </c>
-      <c r="H57" s="7">
+      <c r="D57" s="8">
         <v>2645.5749999999998</v>
       </c>
-      <c r="I57" s="7">
+      <c r="E57" s="8">
+        <v>14150.75</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2645.5749999999998</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2645.5749999999998</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2645.5749999999998</v>
+      </c>
+      <c r="I57" s="8">
         <v>1353.55</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7">
         <v>722.65000000000009</v>
       </c>
-      <c r="C58" s="7">
-        <v>2562.7999999999997</v>
-      </c>
-      <c r="D58" s="7">
-        <v>1922.1</v>
-      </c>
-      <c r="E58" s="7">
-        <v>17135</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1922.1</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="C58" s="8">
         <v>640.69999999999993</v>
       </c>
-      <c r="H58" s="7">
+      <c r="D58" s="8">
         <v>640.69999999999993</v>
       </c>
-      <c r="I58" s="7">
+      <c r="E58" s="8">
+        <v>3427</v>
+      </c>
+      <c r="F58" s="8">
+        <v>640.69999999999993</v>
+      </c>
+      <c r="G58" s="8">
+        <v>640.69999999999993</v>
+      </c>
+      <c r="H58" s="8">
+        <v>640.69999999999993</v>
+      </c>
+      <c r="I58" s="8">
         <v>327.8</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="7">
         <v>1557.6583333333335</v>
       </c>
-      <c r="C59" s="7">
-        <v>5524.0666666666657</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4143.0499999999993</v>
-      </c>
-      <c r="E59" s="7">
-        <v>36934.166666666664</v>
-      </c>
-      <c r="F59" s="7">
-        <v>4143.0499999999993</v>
-      </c>
-      <c r="G59" s="7">
+      <c r="C59" s="8">
         <v>1381.0166666666664</v>
       </c>
-      <c r="H59" s="7">
+      <c r="D59" s="8">
         <v>1381.0166666666664</v>
       </c>
-      <c r="I59" s="7">
+      <c r="E59" s="8">
+        <v>7386.833333333333</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1381.0166666666664</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1381.0166666666664</v>
+      </c>
+      <c r="H59" s="8">
+        <v>1381.0166666666664</v>
+      </c>
+      <c r="I59" s="8">
         <v>706.56666666666661</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>63</v>
+      <c r="A60" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="7">
         <v>669.70416666666665</v>
       </c>
-      <c r="C60" s="7">
-        <v>2375.0333333333333</v>
-      </c>
-      <c r="D60" s="7">
-        <v>1781.2750000000001</v>
-      </c>
-      <c r="E60" s="7">
-        <v>15879.583333333332</v>
-      </c>
-      <c r="F60" s="7">
-        <v>1781.2750000000001</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="C60" s="8">
         <v>593.75833333333333</v>
       </c>
-      <c r="H60" s="7">
+      <c r="D60" s="8">
         <v>593.75833333333333</v>
       </c>
-      <c r="I60" s="7">
+      <c r="E60" s="8">
+        <v>3175.9166666666665</v>
+      </c>
+      <c r="F60" s="8">
+        <v>593.75833333333333</v>
+      </c>
+      <c r="G60" s="8">
+        <v>593.75833333333333</v>
+      </c>
+      <c r="H60" s="8">
+        <v>593.75833333333333</v>
+      </c>
+      <c r="I60" s="8">
         <v>303.7833333333333</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>64</v>
+      <c r="A61" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B61" s="7">
         <v>640.20000000000005</v>
       </c>
-      <c r="C61" s="7">
-        <v>2270.4</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1702.8000000000002</v>
-      </c>
-      <c r="E61" s="7">
-        <v>15180</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1702.8000000000002</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="C61" s="8">
         <v>567.6</v>
       </c>
-      <c r="H61" s="7">
+      <c r="D61" s="8">
         <v>567.6</v>
       </c>
-      <c r="I61" s="7">
+      <c r="E61" s="8">
+        <v>3036</v>
+      </c>
+      <c r="F61" s="8">
+        <v>567.6</v>
+      </c>
+      <c r="G61" s="8">
+        <v>567.6</v>
+      </c>
+      <c r="H61" s="8">
+        <v>567.6</v>
+      </c>
+      <c r="I61" s="8">
         <v>290.39999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="7">
         <v>902.9083333333333</v>
       </c>
-      <c r="C62" s="7">
-        <v>3202.0666666666662</v>
-      </c>
-      <c r="D62" s="7">
-        <v>2401.5499999999997</v>
-      </c>
-      <c r="E62" s="7">
-        <v>21409.166666666664</v>
-      </c>
-      <c r="F62" s="7">
-        <v>2401.5499999999997</v>
-      </c>
-      <c r="G62" s="7">
+      <c r="C62" s="8">
         <v>800.51666666666654</v>
       </c>
-      <c r="H62" s="7">
+      <c r="D62" s="8">
         <v>800.51666666666654</v>
       </c>
-      <c r="I62" s="7">
+      <c r="E62" s="8">
+        <v>4281.833333333333</v>
+      </c>
+      <c r="F62" s="8">
+        <v>800.51666666666654</v>
+      </c>
+      <c r="G62" s="8">
+        <v>800.51666666666654</v>
+      </c>
+      <c r="H62" s="8">
+        <v>800.51666666666654</v>
+      </c>
+      <c r="I62" s="8">
         <v>409.56666666666661</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="7">
         <v>1460.2541666666666</v>
       </c>
-      <c r="C63" s="7">
-        <v>5178.6333333333332</v>
-      </c>
-      <c r="D63" s="7">
-        <v>3883.9749999999999</v>
-      </c>
-      <c r="E63" s="7">
-        <v>34624.583333333336</v>
-      </c>
-      <c r="F63" s="7">
-        <v>3883.9749999999999</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="C63" s="8">
         <v>1294.6583333333333</v>
       </c>
-      <c r="H63" s="7">
+      <c r="D63" s="8">
         <v>1294.6583333333333</v>
       </c>
-      <c r="I63" s="7">
+      <c r="E63" s="8">
+        <v>6924.916666666667</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1294.6583333333333</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1294.6583333333333</v>
+      </c>
+      <c r="H63" s="8">
+        <v>1294.6583333333333</v>
+      </c>
+      <c r="I63" s="8">
         <v>662.38333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="7">
         <v>1160.7666666666667</v>
       </c>
-      <c r="C64" s="7">
-        <v>4116.5333333333328</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3087.3999999999996</v>
-      </c>
-      <c r="E64" s="7">
-        <v>27523.333333333336</v>
-      </c>
-      <c r="F64" s="7">
-        <v>3087.3999999999996</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="C64" s="8">
         <v>1029.1333333333332</v>
       </c>
-      <c r="H64" s="7">
+      <c r="D64" s="8">
         <v>1029.1333333333332</v>
       </c>
-      <c r="I64" s="7">
+      <c r="E64" s="8">
+        <v>5504.666666666667</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1029.1333333333332</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1029.1333333333332</v>
+      </c>
+      <c r="H64" s="8">
+        <v>1029.1333333333332</v>
+      </c>
+      <c r="I64" s="8">
         <v>526.5333333333333</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="7">
         <v>1197.95</v>
       </c>
-      <c r="C65" s="7">
-        <v>4248.3999999999996</v>
-      </c>
-      <c r="D65" s="7">
-        <v>3186.2999999999997</v>
-      </c>
-      <c r="E65" s="7">
-        <v>28405</v>
-      </c>
-      <c r="F65" s="7">
-        <v>3186.2999999999997</v>
-      </c>
-      <c r="G65" s="7">
+      <c r="C65" s="8">
         <v>1062.0999999999999</v>
       </c>
-      <c r="H65" s="7">
+      <c r="D65" s="8">
         <v>1062.0999999999999</v>
       </c>
-      <c r="I65" s="7">
+      <c r="E65" s="8">
+        <v>5681</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1062.0999999999999</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1062.0999999999999</v>
+      </c>
+      <c r="H65" s="8">
+        <v>1062.0999999999999</v>
+      </c>
+      <c r="I65" s="8">
         <v>543.4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="7">
         <v>858.85416666666663</v>
       </c>
-      <c r="C66" s="7">
-        <v>3045.8333333333335</v>
-      </c>
-      <c r="D66" s="7">
-        <v>2284.375</v>
-      </c>
-      <c r="E66" s="7">
-        <v>20364.583333333332</v>
-      </c>
-      <c r="F66" s="7">
-        <v>2284.375</v>
-      </c>
-      <c r="G66" s="7">
+      <c r="C66" s="8">
         <v>761.45833333333337</v>
       </c>
-      <c r="H66" s="7">
+      <c r="D66" s="8">
         <v>761.45833333333337</v>
       </c>
-      <c r="I66" s="7">
+      <c r="E66" s="8">
+        <v>4072.9166666666665</v>
+      </c>
+      <c r="F66" s="8">
+        <v>761.45833333333337</v>
+      </c>
+      <c r="G66" s="8">
+        <v>761.45833333333337</v>
+      </c>
+      <c r="H66" s="8">
+        <v>761.45833333333337</v>
+      </c>
+      <c r="I66" s="8">
         <v>389.58333333333331</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="7">
         <v>926.35</v>
       </c>
-      <c r="C67" s="7">
-        <v>3285.1999999999994</v>
-      </c>
-      <c r="D67" s="7">
-        <v>2463.8999999999996</v>
-      </c>
-      <c r="E67" s="7">
-        <v>21965</v>
-      </c>
-      <c r="F67" s="7">
-        <v>2463.8999999999996</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="C67" s="8">
         <v>821.29999999999984</v>
       </c>
-      <c r="H67" s="7">
+      <c r="D67" s="8">
         <v>821.29999999999984</v>
       </c>
-      <c r="I67" s="7">
+      <c r="E67" s="8">
+        <v>4393</v>
+      </c>
+      <c r="F67" s="8">
+        <v>821.29999999999984</v>
+      </c>
+      <c r="G67" s="8">
+        <v>821.29999999999984</v>
+      </c>
+      <c r="H67" s="8">
+        <v>821.29999999999984</v>
+      </c>
+      <c r="I67" s="8">
         <v>420.2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>71</v>
+      <c r="A68" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B68" s="7">
         <v>1047.6000000000001</v>
       </c>
-      <c r="C68" s="7">
-        <v>3715.1999999999994</v>
-      </c>
-      <c r="D68" s="7">
-        <v>2786.3999999999996</v>
-      </c>
-      <c r="E68" s="7">
-        <v>24840</v>
-      </c>
-      <c r="F68" s="7">
-        <v>2786.3999999999996</v>
-      </c>
-      <c r="G68" s="7">
+      <c r="C68" s="8">
         <v>928.79999999999984</v>
       </c>
-      <c r="H68" s="7">
+      <c r="D68" s="8">
         <v>928.79999999999984</v>
       </c>
-      <c r="I68" s="7">
+      <c r="E68" s="8">
+        <v>4968</v>
+      </c>
+      <c r="F68" s="8">
+        <v>928.79999999999984</v>
+      </c>
+      <c r="G68" s="8">
+        <v>928.79999999999984</v>
+      </c>
+      <c r="H68" s="8">
+        <v>928.79999999999984</v>
+      </c>
+      <c r="I68" s="8">
         <v>475.2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>72</v>
+      <c r="A69" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B69" s="7">
         <v>797.01666666666677</v>
       </c>
-      <c r="C69" s="7">
-        <v>2826.5333333333328</v>
-      </c>
-      <c r="D69" s="7">
-        <v>2119.8999999999996</v>
-      </c>
-      <c r="E69" s="7">
-        <v>18898.333333333332</v>
-      </c>
-      <c r="F69" s="7">
-        <v>2119.8999999999996</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="C69" s="8">
         <v>706.63333333333321</v>
       </c>
-      <c r="H69" s="7">
+      <c r="D69" s="8">
         <v>706.63333333333321</v>
       </c>
-      <c r="I69" s="7">
+      <c r="E69" s="8">
+        <v>3779.6666666666665</v>
+      </c>
+      <c r="F69" s="8">
+        <v>706.63333333333321</v>
+      </c>
+      <c r="G69" s="8">
+        <v>706.63333333333321</v>
+      </c>
+      <c r="H69" s="8">
+        <v>706.63333333333321</v>
+      </c>
+      <c r="I69" s="8">
         <v>361.5333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>73</v>
+      <c r="A70" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B70" s="7">
         <v>1048.0041666666668</v>
       </c>
-      <c r="C70" s="7">
-        <v>3716.6333333333332</v>
-      </c>
-      <c r="D70" s="7">
-        <v>2787.4749999999999</v>
-      </c>
-      <c r="E70" s="7">
-        <v>24849.583333333336</v>
-      </c>
-      <c r="F70" s="7">
-        <v>2787.4749999999999</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="C70" s="8">
         <v>929.1583333333333</v>
       </c>
-      <c r="H70" s="7">
+      <c r="D70" s="8">
         <v>929.1583333333333</v>
       </c>
-      <c r="I70" s="7">
+      <c r="E70" s="8">
+        <v>4969.916666666667</v>
+      </c>
+      <c r="F70" s="8">
+        <v>929.1583333333333</v>
+      </c>
+      <c r="G70" s="8">
+        <v>929.1583333333333</v>
+      </c>
+      <c r="H70" s="8">
+        <v>929.1583333333333</v>
+      </c>
+      <c r="I70" s="8">
         <v>475.38333333333327</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="7">
         <v>406.5916666666667</v>
       </c>
-      <c r="C71" s="7">
-        <v>1441.9333333333332</v>
-      </c>
-      <c r="D71" s="7">
-        <v>1081.4499999999998</v>
-      </c>
-      <c r="E71" s="7">
-        <v>9640.8333333333339</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1081.4499999999998</v>
-      </c>
-      <c r="G71" s="7">
+      <c r="C71" s="8">
         <v>360.48333333333329</v>
       </c>
-      <c r="H71" s="7">
+      <c r="D71" s="8">
         <v>360.48333333333329</v>
       </c>
-      <c r="I71" s="7">
+      <c r="E71" s="8">
+        <v>1928.1666666666667</v>
+      </c>
+      <c r="F71" s="8">
+        <v>360.48333333333329</v>
+      </c>
+      <c r="G71" s="8">
+        <v>360.48333333333329</v>
+      </c>
+      <c r="H71" s="8">
+        <v>360.48333333333329</v>
+      </c>
+      <c r="I71" s="8">
         <v>184.43333333333331</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7">
         <v>987.7833333333333</v>
       </c>
-      <c r="C72" s="7">
-        <v>3503.0666666666662</v>
-      </c>
-      <c r="D72" s="7">
-        <v>2627.2999999999997</v>
-      </c>
-      <c r="E72" s="7">
-        <v>23421.666666666664</v>
-      </c>
-      <c r="F72" s="7">
-        <v>2627.2999999999997</v>
-      </c>
-      <c r="G72" s="7">
+      <c r="C72" s="8">
         <v>875.76666666666654</v>
       </c>
-      <c r="H72" s="7">
+      <c r="D72" s="8">
         <v>875.76666666666654</v>
       </c>
-      <c r="I72" s="7">
+      <c r="E72" s="8">
+        <v>4684.333333333333</v>
+      </c>
+      <c r="F72" s="8">
+        <v>875.76666666666654</v>
+      </c>
+      <c r="G72" s="8">
+        <v>875.76666666666654</v>
+      </c>
+      <c r="H72" s="8">
+        <v>875.76666666666654</v>
+      </c>
+      <c r="I72" s="8">
         <v>448.06666666666661</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="7">
         <v>1410.1375</v>
       </c>
-      <c r="C73" s="7">
-        <v>5000.8999999999996</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3750.6749999999997</v>
-      </c>
-      <c r="E73" s="7">
-        <v>33436.25</v>
-      </c>
-      <c r="F73" s="7">
-        <v>3750.6749999999997</v>
-      </c>
-      <c r="G73" s="7">
+      <c r="C73" s="8">
         <v>1250.2249999999999</v>
       </c>
-      <c r="H73" s="7">
+      <c r="D73" s="8">
         <v>1250.2249999999999</v>
       </c>
-      <c r="I73" s="7">
+      <c r="E73" s="8">
+        <v>6687.25</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1250.2249999999999</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1250.2249999999999</v>
+      </c>
+      <c r="H73" s="8">
+        <v>1250.2249999999999</v>
+      </c>
+      <c r="I73" s="8">
         <v>639.65</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>77</v>
+      <c r="A74" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B74" s="7">
         <v>1890.6916666666666</v>
       </c>
-      <c r="C74" s="7">
-        <v>6705.1333333333323</v>
-      </c>
-      <c r="D74" s="7">
-        <v>5028.8499999999995</v>
-      </c>
-      <c r="E74" s="7">
-        <v>44830.833333333328</v>
-      </c>
-      <c r="F74" s="7">
-        <v>5028.8499999999995</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="C74" s="8">
         <v>1676.2833333333331</v>
       </c>
-      <c r="H74" s="7">
+      <c r="D74" s="8">
         <v>1676.2833333333331</v>
       </c>
-      <c r="I74" s="7">
+      <c r="E74" s="8">
+        <v>8966.1666666666661</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1676.2833333333331</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1676.2833333333331</v>
+      </c>
+      <c r="H74" s="8">
+        <v>1676.2833333333331</v>
+      </c>
+      <c r="I74" s="8">
         <v>857.63333333333321</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>78</v>
+      <c r="A75" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="B75" s="7">
         <v>1175.3166666666668</v>
       </c>
-      <c r="C75" s="7">
-        <v>4168.1333333333332</v>
-      </c>
-      <c r="D75" s="7">
-        <v>3126.1</v>
-      </c>
-      <c r="E75" s="7">
-        <v>27868.333333333336</v>
-      </c>
-      <c r="F75" s="7">
-        <v>3126.1</v>
-      </c>
-      <c r="G75" s="7">
+      <c r="C75" s="8">
         <v>1042.0333333333333</v>
       </c>
-      <c r="H75" s="7">
+      <c r="D75" s="8">
         <v>1042.0333333333333</v>
       </c>
-      <c r="I75" s="7">
+      <c r="E75" s="8">
+        <v>5573.666666666667</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1042.0333333333333</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1042.0333333333333</v>
+      </c>
+      <c r="H75" s="8">
+        <v>1042.0333333333333</v>
+      </c>
+      <c r="I75" s="8">
         <v>533.13333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B76" s="7">
         <v>559.36666666666667</v>
       </c>
-      <c r="C76" s="7">
-        <v>1983.7333333333333</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1487.8</v>
-      </c>
-      <c r="E76" s="7">
-        <v>13263.333333333332</v>
-      </c>
-      <c r="F76" s="7">
-        <v>1487.8</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="C76" s="8">
         <v>495.93333333333334</v>
       </c>
-      <c r="H76" s="7">
+      <c r="D76" s="8">
         <v>495.93333333333334</v>
       </c>
-      <c r="I76" s="7">
+      <c r="E76" s="8">
+        <v>2652.6666666666665</v>
+      </c>
+      <c r="F76" s="8">
+        <v>495.93333333333334</v>
+      </c>
+      <c r="G76" s="8">
+        <v>495.93333333333334</v>
+      </c>
+      <c r="H76" s="8">
+        <v>495.93333333333334</v>
+      </c>
+      <c r="I76" s="8">
         <v>253.73333333333332</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B77" s="7">
         <v>1775.1000000000001</v>
       </c>
-      <c r="C77" s="7">
-        <v>6295.2</v>
-      </c>
-      <c r="D77" s="7">
-        <v>4721.3999999999996</v>
-      </c>
-      <c r="E77" s="7">
-        <v>42090</v>
-      </c>
-      <c r="F77" s="7">
-        <v>4721.3999999999996</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="C77" s="8">
         <v>1573.8</v>
       </c>
-      <c r="H77" s="7">
+      <c r="D77" s="8">
         <v>1573.8</v>
       </c>
-      <c r="I77" s="7">
+      <c r="E77" s="8">
+        <v>8418</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1573.8</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1573.8</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1573.8</v>
+      </c>
+      <c r="I77" s="8">
         <v>805.19999999999993</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>81</v>
+      <c r="A78" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B78" s="7">
         <v>1013.6500000000001</v>
       </c>
-      <c r="C78" s="7">
-        <v>3594.7999999999997</v>
-      </c>
-      <c r="D78" s="7">
-        <v>2696.1</v>
-      </c>
-      <c r="E78" s="7">
-        <v>24035</v>
-      </c>
-      <c r="F78" s="7">
-        <v>2696.1</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="C78" s="8">
         <v>898.69999999999993</v>
       </c>
-      <c r="H78" s="7">
+      <c r="D78" s="8">
         <v>898.69999999999993</v>
       </c>
-      <c r="I78" s="7">
+      <c r="E78" s="8">
+        <v>4807</v>
+      </c>
+      <c r="F78" s="8">
+        <v>898.69999999999993</v>
+      </c>
+      <c r="G78" s="8">
+        <v>898.69999999999993</v>
+      </c>
+      <c r="H78" s="8">
+        <v>898.69999999999993</v>
+      </c>
+      <c r="I78" s="8">
         <v>459.79999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>82</v>
+      <c r="A79" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B79" s="7">
         <v>1965.8666666666668</v>
       </c>
-      <c r="C79" s="7">
-        <v>6971.7333333333327</v>
-      </c>
-      <c r="D79" s="7">
-        <v>5228.7999999999993</v>
-      </c>
-      <c r="E79" s="7">
-        <v>46613.333333333328</v>
-      </c>
-      <c r="F79" s="7">
-        <v>5228.7999999999993</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="C79" s="8">
         <v>1742.9333333333332</v>
       </c>
-      <c r="H79" s="7">
+      <c r="D79" s="8">
         <v>1742.9333333333332</v>
       </c>
-      <c r="I79" s="7">
+      <c r="E79" s="8">
+        <v>9322.6666666666661</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1742.9333333333332</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1742.9333333333332</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1742.9333333333332</v>
+      </c>
+      <c r="I79" s="8">
         <v>891.73333333333323</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>83</v>
+      <c r="A80" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B80" s="7">
         <v>1137.325</v>
       </c>
-      <c r="C80" s="7">
-        <v>4033.3999999999996</v>
-      </c>
-      <c r="D80" s="7">
-        <v>3025.0499999999997</v>
-      </c>
-      <c r="E80" s="7">
-        <v>26967.5</v>
-      </c>
-      <c r="F80" s="7">
-        <v>3025.0499999999997</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="C80" s="8">
         <v>1008.3499999999999</v>
       </c>
-      <c r="H80" s="7">
+      <c r="D80" s="8">
         <v>1008.3499999999999</v>
       </c>
-      <c r="I80" s="7">
+      <c r="E80" s="8">
+        <v>5393.5</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1008.3499999999999</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1008.3499999999999</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1008.3499999999999</v>
+      </c>
+      <c r="I80" s="8">
         <v>515.9</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81" s="7">
         <v>409.01666666666665</v>
       </c>
-      <c r="C81" s="7">
-        <v>1450.5333333333331</v>
-      </c>
-      <c r="D81" s="7">
-        <v>1087.8999999999999</v>
-      </c>
-      <c r="E81" s="7">
-        <v>9698.3333333333339</v>
-      </c>
-      <c r="F81" s="7">
-        <v>1087.8999999999999</v>
-      </c>
-      <c r="G81" s="7">
+      <c r="C81" s="8">
         <v>362.63333333333327</v>
       </c>
-      <c r="H81" s="7">
+      <c r="D81" s="8">
         <v>362.63333333333327</v>
       </c>
-      <c r="I81" s="7">
+      <c r="E81" s="8">
+        <v>1939.6666666666667</v>
+      </c>
+      <c r="F81" s="8">
+        <v>362.63333333333327</v>
+      </c>
+      <c r="G81" s="8">
+        <v>362.63333333333327</v>
+      </c>
+      <c r="H81" s="8">
+        <v>362.63333333333327</v>
+      </c>
+      <c r="I81" s="8">
         <v>185.53333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B82" s="7">
         <v>568.25833333333333</v>
       </c>
-      <c r="C82" s="7">
-        <v>2015.2666666666664</v>
-      </c>
-      <c r="D82" s="7">
-        <v>1511.4499999999998</v>
-      </c>
-      <c r="E82" s="7">
-        <v>13474.166666666668</v>
-      </c>
-      <c r="F82" s="7">
-        <v>1511.4499999999998</v>
-      </c>
-      <c r="G82" s="7">
+      <c r="C82" s="8">
         <v>503.81666666666661</v>
       </c>
-      <c r="H82" s="7">
+      <c r="D82" s="8">
         <v>503.81666666666661</v>
       </c>
-      <c r="I82" s="7">
+      <c r="E82" s="8">
+        <v>2694.8333333333335</v>
+      </c>
+      <c r="F82" s="8">
+        <v>503.81666666666661</v>
+      </c>
+      <c r="G82" s="8">
+        <v>503.81666666666661</v>
+      </c>
+      <c r="H82" s="8">
+        <v>503.81666666666661</v>
+      </c>
+      <c r="I82" s="8">
         <v>257.76666666666665</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>86</v>
+      <c r="A83" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B83" s="7">
         <v>791.76249999999993</v>
       </c>
-      <c r="C83" s="7">
-        <v>2807.8999999999996</v>
-      </c>
-      <c r="D83" s="7">
-        <v>2105.9249999999997</v>
-      </c>
-      <c r="E83" s="7">
-        <v>18773.75</v>
-      </c>
-      <c r="F83" s="7">
-        <v>2105.9249999999997</v>
-      </c>
-      <c r="G83" s="7">
+      <c r="C83" s="8">
         <v>701.97499999999991</v>
       </c>
-      <c r="H83" s="7">
+      <c r="D83" s="8">
         <v>701.97499999999991</v>
       </c>
-      <c r="I83" s="7">
+      <c r="E83" s="8">
+        <v>3754.75</v>
+      </c>
+      <c r="F83" s="8">
+        <v>701.97499999999991</v>
+      </c>
+      <c r="G83" s="8">
+        <v>701.97499999999991</v>
+      </c>
+      <c r="H83" s="8">
+        <v>701.97499999999991</v>
+      </c>
+      <c r="I83" s="8">
         <v>359.15000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>87</v>
+      <c r="A84" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B84" s="7">
         <v>1269.0833333333333</v>
       </c>
-      <c r="C84" s="7">
-        <v>4500.6666666666661</v>
-      </c>
-      <c r="D84" s="7">
-        <v>3375.4999999999995</v>
-      </c>
-      <c r="E84" s="7">
-        <v>30091.666666666664</v>
-      </c>
-      <c r="F84" s="7">
-        <v>3375.4999999999995</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="C84" s="8">
         <v>1125.1666666666665</v>
       </c>
-      <c r="H84" s="7">
+      <c r="D84" s="8">
         <v>1125.1666666666665</v>
       </c>
-      <c r="I84" s="7">
+      <c r="E84" s="8">
+        <v>6018.333333333333</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1125.1666666666665</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1125.1666666666665</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1125.1666666666665</v>
+      </c>
+      <c r="I84" s="8">
         <v>575.66666666666663</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85" s="7">
         <v>1265.4458333333334</v>
       </c>
-      <c r="C85" s="7">
-        <v>4487.7666666666664</v>
-      </c>
-      <c r="D85" s="7">
-        <v>3365.8249999999998</v>
-      </c>
-      <c r="E85" s="7">
-        <v>30005.416666666664</v>
-      </c>
-      <c r="F85" s="7">
-        <v>3365.8249999999998</v>
-      </c>
-      <c r="G85" s="7">
+      <c r="C85" s="8">
         <v>1121.9416666666666</v>
       </c>
-      <c r="H85" s="7">
+      <c r="D85" s="8">
         <v>1121.9416666666666</v>
       </c>
-      <c r="I85" s="7">
+      <c r="E85" s="8">
+        <v>6001.083333333333</v>
+      </c>
+      <c r="F85" s="8">
+        <v>1121.9416666666666</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1121.9416666666666</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1121.9416666666666</v>
+      </c>
+      <c r="I85" s="8">
         <v>574.01666666666665</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B86" s="7">
         <v>2077.0125000000003</v>
       </c>
-      <c r="C86" s="7">
-        <v>7365.8999999999987</v>
-      </c>
-      <c r="D86" s="7">
-        <v>5524.4249999999993</v>
-      </c>
-      <c r="E86" s="7">
-        <v>49248.75</v>
-      </c>
-      <c r="F86" s="7">
-        <v>5524.4249999999993</v>
-      </c>
-      <c r="G86" s="7">
+      <c r="C86" s="8">
         <v>1841.4749999999997</v>
       </c>
-      <c r="H86" s="7">
+      <c r="D86" s="8">
         <v>1841.4749999999997</v>
       </c>
-      <c r="I86" s="7">
+      <c r="E86" s="8">
+        <v>9849.75</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1841.4749999999997</v>
+      </c>
+      <c r="G86" s="8">
+        <v>1841.4749999999997</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1841.4749999999997</v>
+      </c>
+      <c r="I86" s="8">
         <v>942.15</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87" s="7">
         <v>2150.5708333333337</v>
       </c>
-      <c r="C87" s="7">
-        <v>7626.7666666666664</v>
-      </c>
-      <c r="D87" s="7">
-        <v>5720.0749999999998</v>
-      </c>
-      <c r="E87" s="7">
-        <v>50992.916666666672</v>
-      </c>
-      <c r="F87" s="7">
-        <v>5720.0749999999998</v>
-      </c>
-      <c r="G87" s="7">
+      <c r="C87" s="8">
         <v>1906.6916666666666</v>
       </c>
-      <c r="H87" s="7">
+      <c r="D87" s="8">
         <v>1906.6916666666666</v>
       </c>
-      <c r="I87" s="7">
+      <c r="E87" s="8">
+        <v>10198.583333333334</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1906.6916666666666</v>
+      </c>
+      <c r="G87" s="8">
+        <v>1906.6916666666666</v>
+      </c>
+      <c r="H87" s="8">
+        <v>1906.6916666666666</v>
+      </c>
+      <c r="I87" s="8">
         <v>975.51666666666654</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>91</v>
+      <c r="A88" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="B88" s="7">
         <v>2021.6416666666667</v>
       </c>
-      <c r="C88" s="7">
-        <v>7169.5333333333328</v>
-      </c>
-      <c r="D88" s="7">
-        <v>5377.15</v>
-      </c>
-      <c r="E88" s="7">
-        <v>47935.833333333328</v>
-      </c>
-      <c r="F88" s="7">
-        <v>5377.15</v>
-      </c>
-      <c r="G88" s="7">
+      <c r="C88" s="8">
         <v>1792.3833333333332</v>
       </c>
-      <c r="H88" s="7">
+      <c r="D88" s="8">
         <v>1792.3833333333332</v>
       </c>
-      <c r="I88" s="7">
+      <c r="E88" s="8">
+        <v>9587.1666666666661</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1792.3833333333332</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1792.3833333333332</v>
+      </c>
+      <c r="H88" s="8">
+        <v>1792.3833333333332</v>
+      </c>
+      <c r="I88" s="8">
         <v>917.0333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>92</v>
+      <c r="A89" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B89" s="7">
         <v>759.42916666666667</v>
       </c>
-      <c r="C89" s="7">
-        <v>2693.2333333333331</v>
-      </c>
-      <c r="D89" s="7">
-        <v>2019.9249999999997</v>
-      </c>
-      <c r="E89" s="7">
-        <v>18007.083333333332</v>
-      </c>
-      <c r="F89" s="7">
-        <v>2019.9249999999997</v>
-      </c>
-      <c r="G89" s="7">
+      <c r="C89" s="8">
         <v>673.30833333333328</v>
       </c>
-      <c r="H89" s="7">
+      <c r="D89" s="8">
         <v>673.30833333333328</v>
       </c>
-      <c r="I89" s="7">
+      <c r="E89" s="8">
+        <v>3601.4166666666665</v>
+      </c>
+      <c r="F89" s="8">
+        <v>673.30833333333328</v>
+      </c>
+      <c r="G89" s="8">
+        <v>673.30833333333328</v>
+      </c>
+      <c r="H89" s="8">
+        <v>673.30833333333328</v>
+      </c>
+      <c r="I89" s="8">
         <v>344.48333333333335</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B90" s="7">
         <v>1388.3125</v>
       </c>
-      <c r="C90" s="7">
-        <v>4923.4999999999991</v>
-      </c>
-      <c r="D90" s="7">
-        <v>3692.6249999999991</v>
-      </c>
-      <c r="E90" s="7">
-        <v>32918.75</v>
-      </c>
-      <c r="F90" s="7">
-        <v>3692.6249999999991</v>
-      </c>
-      <c r="G90" s="7">
+      <c r="C90" s="8">
         <v>1230.8749999999998</v>
       </c>
-      <c r="H90" s="7">
+      <c r="D90" s="8">
         <v>1230.8749999999998</v>
       </c>
-      <c r="I90" s="7">
+      <c r="E90" s="8">
+        <v>6583.75</v>
+      </c>
+      <c r="F90" s="8">
+        <v>1230.8749999999998</v>
+      </c>
+      <c r="G90" s="8">
+        <v>1230.8749999999998</v>
+      </c>
+      <c r="H90" s="8">
+        <v>1230.8749999999998</v>
+      </c>
+      <c r="I90" s="8">
         <v>629.75</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B91" s="7">
         <v>444.98750000000001</v>
       </c>
-      <c r="C91" s="7">
-        <v>1578.0999999999997</v>
-      </c>
-      <c r="D91" s="7">
-        <v>1183.5749999999998</v>
-      </c>
-      <c r="E91" s="7">
-        <v>10551.25</v>
-      </c>
-      <c r="F91" s="7">
-        <v>1183.5749999999998</v>
-      </c>
-      <c r="G91" s="7">
+      <c r="C91" s="8">
         <v>394.52499999999992</v>
       </c>
-      <c r="H91" s="7">
+      <c r="D91" s="8">
         <v>394.52499999999992</v>
       </c>
-      <c r="I91" s="7">
+      <c r="E91" s="8">
+        <v>2110.25</v>
+      </c>
+      <c r="F91" s="8">
+        <v>394.52499999999992</v>
+      </c>
+      <c r="G91" s="8">
+        <v>394.52499999999992</v>
+      </c>
+      <c r="H91" s="8">
+        <v>394.52499999999992</v>
+      </c>
+      <c r="I91" s="8">
         <v>201.85</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B92" s="7">
         <v>596.55000000000007</v>
       </c>
-      <c r="C92" s="7">
-        <v>2115.6</v>
-      </c>
-      <c r="D92" s="7">
-        <v>1586.6999999999998</v>
-      </c>
-      <c r="E92" s="7">
-        <v>14145</v>
-      </c>
-      <c r="F92" s="7">
-        <v>1586.6999999999998</v>
-      </c>
-      <c r="G92" s="7">
+      <c r="C92" s="8">
         <v>528.9</v>
       </c>
-      <c r="H92" s="7">
+      <c r="D92" s="8">
         <v>528.9</v>
       </c>
-      <c r="I92" s="7">
+      <c r="E92" s="8">
+        <v>2829</v>
+      </c>
+      <c r="F92" s="8">
+        <v>528.9</v>
+      </c>
+      <c r="G92" s="8">
+        <v>528.9</v>
+      </c>
+      <c r="H92" s="8">
+        <v>528.9</v>
+      </c>
+      <c r="I92" s="8">
         <v>270.59999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7">
         <v>1076.7</v>
       </c>
-      <c r="C93" s="7">
-        <v>3818.3999999999996</v>
-      </c>
-      <c r="D93" s="7">
-        <v>2863.7999999999997</v>
-      </c>
-      <c r="E93" s="7">
-        <v>25530</v>
-      </c>
-      <c r="F93" s="7">
-        <v>2863.7999999999997</v>
-      </c>
-      <c r="G93" s="7">
+      <c r="C93" s="8">
         <v>954.59999999999991</v>
       </c>
-      <c r="H93" s="7">
+      <c r="D93" s="8">
         <v>954.59999999999991</v>
       </c>
-      <c r="I93" s="7">
+      <c r="E93" s="8">
+        <v>5106</v>
+      </c>
+      <c r="F93" s="8">
+        <v>954.59999999999991</v>
+      </c>
+      <c r="G93" s="8">
+        <v>954.59999999999991</v>
+      </c>
+      <c r="H93" s="8">
+        <v>954.59999999999991</v>
+      </c>
+      <c r="I93" s="8">
         <v>488.39999999999992</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B94" s="7">
         <v>3078.5375000000004</v>
       </c>
-      <c r="C94" s="7">
-        <v>10917.699999999999</v>
-      </c>
-      <c r="D94" s="7">
-        <v>8188.2749999999996</v>
-      </c>
-      <c r="E94" s="7">
-        <v>72996.25</v>
-      </c>
-      <c r="F94" s="7">
-        <v>8188.2749999999996</v>
-      </c>
-      <c r="G94" s="7">
+      <c r="C94" s="8">
         <v>2729.4249999999997</v>
       </c>
-      <c r="H94" s="7">
+      <c r="D94" s="8">
         <v>2729.4249999999997</v>
       </c>
-      <c r="I94" s="7">
+      <c r="E94" s="8">
+        <v>14599.25</v>
+      </c>
+      <c r="F94" s="8">
+        <v>2729.4249999999997</v>
+      </c>
+      <c r="G94" s="8">
+        <v>2729.4249999999997</v>
+      </c>
+      <c r="H94" s="8">
+        <v>2729.4249999999997</v>
+      </c>
+      <c r="I94" s="8">
         <v>1396.4499999999998</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B95" s="7">
         <v>2599.1958333333337</v>
       </c>
-      <c r="C95" s="7">
-        <v>9217.7666666666664</v>
-      </c>
-      <c r="D95" s="7">
-        <v>6913.3249999999998</v>
-      </c>
-      <c r="E95" s="7">
-        <v>61630.416666666672</v>
-      </c>
-      <c r="F95" s="7">
-        <v>6913.3249999999998</v>
-      </c>
-      <c r="G95" s="7">
+      <c r="C95" s="8">
         <v>2304.4416666666666</v>
       </c>
-      <c r="H95" s="7">
+      <c r="D95" s="8">
         <v>2304.4416666666666</v>
       </c>
-      <c r="I95" s="7">
+      <c r="E95" s="8">
+        <v>12326.083333333334</v>
+      </c>
+      <c r="F95" s="8">
+        <v>2304.4416666666666</v>
+      </c>
+      <c r="G95" s="8">
+        <v>2304.4416666666666</v>
+      </c>
+      <c r="H95" s="8">
+        <v>2304.4416666666666</v>
+      </c>
+      <c r="I95" s="8">
         <v>1179.0166666666667</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B96" s="7">
         <v>715.7791666666667</v>
       </c>
-      <c r="C96" s="7">
-        <v>2538.4333333333329</v>
-      </c>
-      <c r="D96" s="7">
-        <v>1903.8249999999998</v>
-      </c>
-      <c r="E96" s="7">
-        <v>16972.083333333332</v>
-      </c>
-      <c r="F96" s="7">
-        <v>1903.8249999999998</v>
-      </c>
-      <c r="G96" s="7">
+      <c r="C96" s="8">
         <v>634.60833333333323</v>
       </c>
-      <c r="H96" s="7">
+      <c r="D96" s="8">
         <v>634.60833333333323</v>
       </c>
-      <c r="I96" s="7">
+      <c r="E96" s="8">
+        <v>3394.4166666666665</v>
+      </c>
+      <c r="F96" s="8">
+        <v>634.60833333333323</v>
+      </c>
+      <c r="G96" s="8">
+        <v>634.60833333333323</v>
+      </c>
+      <c r="H96" s="8">
+        <v>634.60833333333323</v>
+      </c>
+      <c r="I96" s="8">
         <v>324.68333333333334</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B97" s="7">
         <v>864.10833333333346</v>
       </c>
-      <c r="C97" s="7">
-        <v>3064.4666666666667</v>
-      </c>
-      <c r="D97" s="7">
-        <v>2298.35</v>
-      </c>
-      <c r="E97" s="7">
-        <v>20489.166666666664</v>
-      </c>
-      <c r="F97" s="7">
-        <v>2298.35</v>
-      </c>
-      <c r="G97" s="7">
+      <c r="C97" s="8">
         <v>766.11666666666667</v>
       </c>
-      <c r="H97" s="7">
+      <c r="D97" s="8">
         <v>766.11666666666667</v>
       </c>
-      <c r="I97" s="7">
+      <c r="E97" s="8">
+        <v>4097.833333333333</v>
+      </c>
+      <c r="F97" s="8">
+        <v>766.11666666666667</v>
+      </c>
+      <c r="G97" s="8">
+        <v>766.11666666666667</v>
+      </c>
+      <c r="H97" s="8">
+        <v>766.11666666666667</v>
+      </c>
+      <c r="I97" s="8">
         <v>391.96666666666664</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B98" s="7">
         <v>794.5916666666667</v>
       </c>
-      <c r="C98" s="7">
-        <v>2817.9333333333329</v>
-      </c>
-      <c r="D98" s="7">
-        <v>2113.4499999999998</v>
-      </c>
-      <c r="E98" s="7">
-        <v>18840.833333333332</v>
-      </c>
-      <c r="F98" s="7">
-        <v>2113.4499999999998</v>
-      </c>
-      <c r="G98" s="7">
+      <c r="C98" s="8">
         <v>704.48333333333323</v>
       </c>
-      <c r="H98" s="7">
+      <c r="D98" s="8">
         <v>704.48333333333323</v>
       </c>
-      <c r="I98" s="7">
+      <c r="E98" s="8">
+        <v>3768.1666666666665</v>
+      </c>
+      <c r="F98" s="8">
+        <v>704.48333333333323</v>
+      </c>
+      <c r="G98" s="8">
+        <v>704.48333333333323</v>
+      </c>
+      <c r="H98" s="8">
+        <v>704.48333333333323</v>
+      </c>
+      <c r="I98" s="8">
         <v>360.43333333333334</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B99" s="7">
         <v>908.56666666666672</v>
       </c>
-      <c r="C99" s="7">
-        <v>3222.1333333333332</v>
-      </c>
-      <c r="D99" s="7">
-        <v>2416.6</v>
-      </c>
-      <c r="E99" s="7">
-        <v>21543.333333333336</v>
-      </c>
-      <c r="F99" s="7">
-        <v>2416.6</v>
-      </c>
-      <c r="G99" s="7">
+      <c r="C99" s="8">
         <v>805.5333333333333</v>
       </c>
-      <c r="H99" s="7">
+      <c r="D99" s="8">
         <v>805.5333333333333</v>
       </c>
-      <c r="I99" s="7">
+      <c r="E99" s="8">
+        <v>4308.666666666667</v>
+      </c>
+      <c r="F99" s="8">
+        <v>805.5333333333333</v>
+      </c>
+      <c r="G99" s="8">
+        <v>805.5333333333333</v>
+      </c>
+      <c r="H99" s="8">
+        <v>805.5333333333333</v>
+      </c>
+      <c r="I99" s="8">
         <v>412.13333333333327</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B100" s="7">
         <v>959.08750000000009</v>
       </c>
-      <c r="C100" s="7">
-        <v>3401.2999999999997</v>
-      </c>
-      <c r="D100" s="7">
-        <v>2550.9749999999999</v>
-      </c>
-      <c r="E100" s="7">
-        <v>22741.25</v>
-      </c>
-      <c r="F100" s="7">
-        <v>2550.9749999999999</v>
-      </c>
-      <c r="G100" s="7">
+      <c r="C100" s="8">
         <v>850.32499999999993</v>
       </c>
-      <c r="H100" s="7">
+      <c r="D100" s="8">
         <v>850.32499999999993</v>
       </c>
-      <c r="I100" s="7">
+      <c r="E100" s="8">
+        <v>4548.25</v>
+      </c>
+      <c r="F100" s="8">
+        <v>850.32499999999993</v>
+      </c>
+      <c r="G100" s="8">
+        <v>850.32499999999993</v>
+      </c>
+      <c r="H100" s="8">
+        <v>850.32499999999993</v>
+      </c>
+      <c r="I100" s="8">
         <v>435.04999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B101" s="7">
         <v>1117.1166666666666</v>
       </c>
-      <c r="C101" s="7">
-        <v>3961.7333333333331</v>
-      </c>
-      <c r="D101" s="7">
-        <v>2971.2999999999997</v>
-      </c>
-      <c r="E101" s="7">
-        <v>26488.333333333336</v>
-      </c>
-      <c r="F101" s="7">
-        <v>2971.2999999999997</v>
-      </c>
-      <c r="G101" s="7">
+      <c r="C101" s="8">
         <v>990.43333333333328</v>
       </c>
-      <c r="H101" s="7">
+      <c r="D101" s="8">
         <v>990.43333333333328</v>
       </c>
-      <c r="I101" s="7">
+      <c r="E101" s="8">
+        <v>5297.666666666667</v>
+      </c>
+      <c r="F101" s="8">
+        <v>990.43333333333328</v>
+      </c>
+      <c r="G101" s="8">
+        <v>990.43333333333328</v>
+      </c>
+      <c r="H101" s="8">
+        <v>990.43333333333328</v>
+      </c>
+      <c r="I101" s="8">
         <v>506.73333333333329</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B102" s="7">
         <v>603.42083333333335</v>
       </c>
-      <c r="C102" s="7">
-        <v>2139.9666666666667</v>
-      </c>
-      <c r="D102" s="7">
-        <v>1604.9749999999999</v>
-      </c>
-      <c r="E102" s="7">
-        <v>14307.916666666668</v>
-      </c>
-      <c r="F102" s="7">
-        <v>1604.9749999999999</v>
-      </c>
-      <c r="G102" s="7">
+      <c r="C102" s="8">
         <v>534.99166666666667</v>
       </c>
-      <c r="H102" s="7">
+      <c r="D102" s="8">
         <v>534.99166666666667</v>
       </c>
-      <c r="I102" s="7">
+      <c r="E102" s="8">
+        <v>2861.5833333333335</v>
+      </c>
+      <c r="F102" s="8">
+        <v>534.99166666666667</v>
+      </c>
+      <c r="G102" s="8">
+        <v>534.99166666666667</v>
+      </c>
+      <c r="H102" s="8">
+        <v>534.99166666666667</v>
+      </c>
+      <c r="I102" s="8">
         <v>273.71666666666664</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B103" s="7">
         <v>1044.3666666666666</v>
       </c>
-      <c r="C103" s="7">
-        <v>3703.7333333333331</v>
-      </c>
-      <c r="D103" s="7">
-        <v>2777.7999999999997</v>
-      </c>
-      <c r="E103" s="7">
-        <v>24763.333333333336</v>
-      </c>
-      <c r="F103" s="7">
-        <v>2777.7999999999997</v>
-      </c>
-      <c r="G103" s="7">
+      <c r="C103" s="8">
         <v>925.93333333333328</v>
       </c>
-      <c r="H103" s="7">
+      <c r="D103" s="8">
         <v>925.93333333333328</v>
       </c>
-      <c r="I103" s="7">
+      <c r="E103" s="8">
+        <v>4952.666666666667</v>
+      </c>
+      <c r="F103" s="8">
+        <v>925.93333333333328</v>
+      </c>
+      <c r="G103" s="8">
+        <v>925.93333333333328</v>
+      </c>
+      <c r="H103" s="8">
+        <v>925.93333333333328</v>
+      </c>
+      <c r="I103" s="8">
         <v>473.73333333333329</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7">
         <v>616.35416666666663</v>
       </c>
-      <c r="C104" s="7">
-        <v>2185.833333333333</v>
-      </c>
-      <c r="D104" s="7">
-        <v>1639.3749999999998</v>
-      </c>
-      <c r="E104" s="7">
-        <v>14614.583333333332</v>
-      </c>
-      <c r="F104" s="7">
-        <v>1639.3749999999998</v>
-      </c>
-      <c r="G104" s="7">
+      <c r="C104" s="8">
         <v>546.45833333333326</v>
       </c>
-      <c r="H104" s="7">
+      <c r="D104" s="8">
         <v>546.45833333333326</v>
       </c>
-      <c r="I104" s="7">
+      <c r="E104" s="8">
+        <v>2922.9166666666665</v>
+      </c>
+      <c r="F104" s="8">
+        <v>546.45833333333326</v>
+      </c>
+      <c r="G104" s="8">
+        <v>546.45833333333326</v>
+      </c>
+      <c r="H104" s="8">
+        <v>546.45833333333326</v>
+      </c>
+      <c r="I104" s="8">
         <v>279.58333333333331</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B105" s="7">
         <v>286.55416666666667</v>
       </c>
-      <c r="C105" s="7">
-        <v>1016.2333333333332</v>
-      </c>
-      <c r="D105" s="7">
-        <v>762.17499999999995</v>
-      </c>
-      <c r="E105" s="7">
-        <v>6794.5833333333339</v>
-      </c>
-      <c r="F105" s="7">
-        <v>762.17499999999995</v>
-      </c>
-      <c r="G105" s="7">
+      <c r="C105" s="8">
         <v>254.05833333333331</v>
       </c>
-      <c r="H105" s="7">
+      <c r="D105" s="8">
         <v>254.05833333333331</v>
       </c>
-      <c r="I105" s="7">
+      <c r="E105" s="8">
+        <v>1358.9166666666667</v>
+      </c>
+      <c r="F105" s="8">
+        <v>254.05833333333331</v>
+      </c>
+      <c r="G105" s="8">
+        <v>254.05833333333331</v>
+      </c>
+      <c r="H105" s="8">
+        <v>254.05833333333331</v>
+      </c>
+      <c r="I105" s="8">
         <v>129.98333333333332</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B106" s="7">
         <v>2056.4</v>
       </c>
-      <c r="C106" s="7">
-        <v>7292.7999999999993</v>
-      </c>
-      <c r="D106" s="7">
-        <v>5469.5999999999995</v>
-      </c>
-      <c r="E106" s="7">
-        <v>48760</v>
-      </c>
-      <c r="F106" s="7">
-        <v>5469.5999999999995</v>
-      </c>
-      <c r="G106" s="7">
+      <c r="C106" s="8">
         <v>1823.1999999999998</v>
       </c>
-      <c r="H106" s="7">
+      <c r="D106" s="8">
         <v>1823.1999999999998</v>
       </c>
-      <c r="I106" s="7">
+      <c r="E106" s="8">
+        <v>9752</v>
+      </c>
+      <c r="F106" s="8">
+        <v>1823.1999999999998</v>
+      </c>
+      <c r="G106" s="8">
+        <v>1823.1999999999998</v>
+      </c>
+      <c r="H106" s="8">
+        <v>1823.1999999999998</v>
+      </c>
+      <c r="I106" s="8">
         <v>932.79999999999984</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B107" s="7">
         <v>708.9083333333333</v>
       </c>
-      <c r="C107" s="7">
-        <v>2514.0666666666666</v>
-      </c>
-      <c r="D107" s="7">
-        <v>1885.55</v>
-      </c>
-      <c r="E107" s="7">
-        <v>16809.166666666668</v>
-      </c>
-      <c r="F107" s="7">
-        <v>1885.55</v>
-      </c>
-      <c r="G107" s="7">
+      <c r="C107" s="8">
         <v>628.51666666666665</v>
       </c>
-      <c r="H107" s="7">
+      <c r="D107" s="8">
         <v>628.51666666666665</v>
       </c>
-      <c r="I107" s="7">
+      <c r="E107" s="8">
+        <v>3361.8333333333335</v>
+      </c>
+      <c r="F107" s="8">
+        <v>628.51666666666665</v>
+      </c>
+      <c r="G107" s="8">
+        <v>628.51666666666665</v>
+      </c>
+      <c r="H107" s="8">
+        <v>628.51666666666665</v>
+      </c>
+      <c r="I107" s="8">
         <v>321.56666666666666</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B108" s="7">
         <v>713.75833333333333</v>
       </c>
-      <c r="C108" s="7">
-        <v>2531.2666666666664</v>
-      </c>
-      <c r="D108" s="7">
-        <v>1898.4499999999998</v>
-      </c>
-      <c r="E108" s="7">
-        <v>16924.166666666668</v>
-      </c>
-      <c r="F108" s="7">
-        <v>1898.4499999999998</v>
-      </c>
-      <c r="G108" s="7">
+      <c r="C108" s="8">
         <v>632.81666666666661</v>
       </c>
-      <c r="H108" s="7">
+      <c r="D108" s="8">
         <v>632.81666666666661</v>
       </c>
-      <c r="I108" s="7">
+      <c r="E108" s="8">
+        <v>3384.8333333333335</v>
+      </c>
+      <c r="F108" s="8">
+        <v>632.81666666666661</v>
+      </c>
+      <c r="G108" s="8">
+        <v>632.81666666666661</v>
+      </c>
+      <c r="H108" s="8">
+        <v>632.81666666666661</v>
+      </c>
+      <c r="I108" s="8">
         <v>323.76666666666665</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>112</v>
+      <c r="A109" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B109" s="7">
         <v>473.2791666666667</v>
       </c>
-      <c r="C109" s="7">
-        <v>1678.4333333333332</v>
-      </c>
-      <c r="D109" s="7">
-        <v>1258.8249999999998</v>
-      </c>
-      <c r="E109" s="7">
-        <v>11222.083333333332</v>
-      </c>
-      <c r="F109" s="7">
-        <v>1258.8249999999998</v>
-      </c>
-      <c r="G109" s="7">
+      <c r="C109" s="8">
         <v>419.60833333333329</v>
       </c>
-      <c r="H109" s="7">
+      <c r="D109" s="8">
         <v>419.60833333333329</v>
       </c>
-      <c r="I109" s="7">
+      <c r="E109" s="8">
+        <v>2244.4166666666665</v>
+      </c>
+      <c r="F109" s="8">
+        <v>419.60833333333329</v>
+      </c>
+      <c r="G109" s="8">
+        <v>419.60833333333329</v>
+      </c>
+      <c r="H109" s="8">
+        <v>419.60833333333329</v>
+      </c>
+      <c r="I109" s="8">
         <v>214.68333333333331</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>113</v>
+      <c r="A110" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="B110" s="7">
         <v>1676.4833333333333</v>
       </c>
-      <c r="C110" s="7">
-        <v>5945.4666666666662</v>
-      </c>
-      <c r="D110" s="7">
-        <v>4459.0999999999995</v>
-      </c>
-      <c r="E110" s="7">
-        <v>39751.666666666664</v>
-      </c>
-      <c r="F110" s="7">
-        <v>4459.0999999999995</v>
-      </c>
-      <c r="G110" s="7">
+      <c r="C110" s="8">
         <v>1486.3666666666666</v>
       </c>
-      <c r="H110" s="7">
+      <c r="D110" s="8">
         <v>1486.3666666666666</v>
       </c>
-      <c r="I110" s="7">
+      <c r="E110" s="8">
+        <v>7950.333333333333</v>
+      </c>
+      <c r="F110" s="8">
+        <v>1486.3666666666666</v>
+      </c>
+      <c r="G110" s="8">
+        <v>1486.3666666666666</v>
+      </c>
+      <c r="H110" s="8">
+        <v>1486.3666666666666</v>
+      </c>
+      <c r="I110" s="8">
         <v>760.4666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B111" s="7">
         <v>753.36666666666667</v>
       </c>
-      <c r="C111" s="7">
-        <v>2671.7333333333331</v>
-      </c>
-      <c r="D111" s="7">
-        <v>2003.7999999999997</v>
-      </c>
-      <c r="E111" s="7">
-        <v>17863.333333333332</v>
-      </c>
-      <c r="F111" s="7">
-        <v>2003.7999999999997</v>
-      </c>
-      <c r="G111" s="7">
+      <c r="C111" s="8">
         <v>667.93333333333328</v>
       </c>
-      <c r="H111" s="7">
+      <c r="D111" s="8">
         <v>667.93333333333328</v>
       </c>
-      <c r="I111" s="7">
+      <c r="E111" s="8">
+        <v>3572.6666666666665</v>
+      </c>
+      <c r="F111" s="8">
+        <v>667.93333333333328</v>
+      </c>
+      <c r="G111" s="8">
+        <v>667.93333333333328</v>
+      </c>
+      <c r="H111" s="8">
+        <v>667.93333333333328</v>
+      </c>
+      <c r="I111" s="8">
         <v>341.73333333333335</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B112" s="7">
         <v>706.88749999999993</v>
       </c>
-      <c r="C112" s="7">
-        <v>2506.9</v>
-      </c>
-      <c r="D112" s="7">
-        <v>1880.1750000000002</v>
-      </c>
-      <c r="E112" s="7">
-        <v>16761.25</v>
-      </c>
-      <c r="F112" s="7">
-        <v>1880.1750000000002</v>
-      </c>
-      <c r="G112" s="7">
+      <c r="C112" s="8">
         <v>626.72500000000002</v>
       </c>
-      <c r="H112" s="7">
+      <c r="D112" s="8">
         <v>626.72500000000002</v>
       </c>
-      <c r="I112" s="7">
+      <c r="E112" s="8">
+        <v>3352.25</v>
+      </c>
+      <c r="F112" s="8">
+        <v>626.72500000000002</v>
+      </c>
+      <c r="G112" s="8">
+        <v>626.72500000000002</v>
+      </c>
+      <c r="H112" s="8">
+        <v>626.72500000000002</v>
+      </c>
+      <c r="I112" s="8">
         <v>320.64999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>116</v>
+      <c r="A113" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B113" s="7">
         <v>1066.5958333333333</v>
       </c>
-      <c r="C113" s="7">
-        <v>3782.5666666666662</v>
-      </c>
-      <c r="D113" s="7">
-        <v>2836.9249999999997</v>
-      </c>
-      <c r="E113" s="7">
-        <v>25290.416666666664</v>
-      </c>
-      <c r="F113" s="7">
-        <v>2836.9249999999997</v>
-      </c>
-      <c r="G113" s="7">
+      <c r="C113" s="8">
         <v>945.64166666666654</v>
       </c>
-      <c r="H113" s="7">
+      <c r="D113" s="8">
         <v>945.64166666666654</v>
       </c>
-      <c r="I113" s="7">
+      <c r="E113" s="8">
+        <v>5058.083333333333</v>
+      </c>
+      <c r="F113" s="8">
+        <v>945.64166666666654</v>
+      </c>
+      <c r="G113" s="8">
+        <v>945.64166666666654</v>
+      </c>
+      <c r="H113" s="8">
+        <v>945.64166666666654</v>
+      </c>
+      <c r="I113" s="8">
         <v>483.81666666666661</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B114" s="7">
         <v>1020.9250000000001</v>
       </c>
-      <c r="C114" s="7">
-        <v>3620.6</v>
-      </c>
-      <c r="D114" s="7">
-        <v>2715.45</v>
-      </c>
-      <c r="E114" s="7">
-        <v>24207.5</v>
-      </c>
-      <c r="F114" s="7">
-        <v>2715.45</v>
-      </c>
-      <c r="G114" s="7">
+      <c r="C114" s="8">
         <v>905.15</v>
       </c>
-      <c r="H114" s="7">
+      <c r="D114" s="8">
         <v>905.15</v>
       </c>
-      <c r="I114" s="7">
+      <c r="E114" s="8">
+        <v>4841.5</v>
+      </c>
+      <c r="F114" s="8">
+        <v>905.15</v>
+      </c>
+      <c r="G114" s="8">
+        <v>905.15</v>
+      </c>
+      <c r="H114" s="8">
+        <v>905.15</v>
+      </c>
+      <c r="I114" s="8">
         <v>463.09999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B115" s="7">
         <v>814.80000000000007</v>
       </c>
-      <c r="C115" s="7">
-        <v>2889.6</v>
-      </c>
-      <c r="D115" s="7">
-        <v>2167.1999999999998</v>
-      </c>
-      <c r="E115" s="7">
-        <v>19320</v>
-      </c>
-      <c r="F115" s="7">
-        <v>2167.1999999999998</v>
-      </c>
-      <c r="G115" s="7">
+      <c r="C115" s="8">
         <v>722.4</v>
       </c>
-      <c r="H115" s="7">
+      <c r="D115" s="8">
         <v>722.4</v>
       </c>
-      <c r="I115" s="7">
+      <c r="E115" s="8">
+        <v>3864</v>
+      </c>
+      <c r="F115" s="8">
+        <v>722.4</v>
+      </c>
+      <c r="G115" s="8">
+        <v>722.4</v>
+      </c>
+      <c r="H115" s="8">
+        <v>722.4</v>
+      </c>
+      <c r="I115" s="8">
         <v>369.59999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B116" s="7">
         <v>548.85833333333335</v>
       </c>
-      <c r="C116" s="7">
-        <v>1946.4666666666665</v>
-      </c>
-      <c r="D116" s="7">
-        <v>1459.85</v>
-      </c>
-      <c r="E116" s="7">
-        <v>13014.166666666668</v>
-      </c>
-      <c r="F116" s="7">
-        <v>1459.85</v>
-      </c>
-      <c r="G116" s="7">
+      <c r="C116" s="8">
         <v>486.61666666666662</v>
       </c>
-      <c r="H116" s="7">
+      <c r="D116" s="8">
         <v>486.61666666666662</v>
       </c>
-      <c r="I116" s="7">
+      <c r="E116" s="8">
+        <v>2602.8333333333335</v>
+      </c>
+      <c r="F116" s="8">
+        <v>486.61666666666662</v>
+      </c>
+      <c r="G116" s="8">
+        <v>486.61666666666662</v>
+      </c>
+      <c r="H116" s="8">
+        <v>486.61666666666662</v>
+      </c>
+      <c r="I116" s="8">
         <v>248.96666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>120</v>
+      <c r="A117" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B117" s="7">
         <v>414.27083333333331</v>
       </c>
-      <c r="C117" s="7">
-        <v>1469.1666666666667</v>
-      </c>
-      <c r="D117" s="7">
-        <v>1101.875</v>
-      </c>
-      <c r="E117" s="7">
-        <v>9822.9166666666661</v>
-      </c>
-      <c r="F117" s="7">
-        <v>1101.875</v>
-      </c>
-      <c r="G117" s="7">
+      <c r="C117" s="8">
         <v>367.29166666666669</v>
       </c>
-      <c r="H117" s="7">
+      <c r="D117" s="8">
         <v>367.29166666666669</v>
       </c>
-      <c r="I117" s="7">
+      <c r="E117" s="8">
+        <v>1964.5833333333333</v>
+      </c>
+      <c r="F117" s="8">
+        <v>367.29166666666669</v>
+      </c>
+      <c r="G117" s="8">
+        <v>367.29166666666669</v>
+      </c>
+      <c r="H117" s="8">
+        <v>367.29166666666669</v>
+      </c>
+      <c r="I117" s="8">
         <v>187.91666666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="7">
+        <v>1303.4375</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="D118" s="8">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="E118" s="8">
+        <v>6181.25</v>
+      </c>
+      <c r="F118" s="8">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="G118" s="8">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="I118" s="8">
+        <v>591.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="7">
+        <v>1098.5250000000001</v>
+      </c>
+      <c r="C119" s="8">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="D119" s="8">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="E119" s="8">
+        <v>5209.5</v>
+      </c>
+      <c r="F119" s="8">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="G119" s="8">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="H119" s="8">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="I119" s="8">
+        <v>498.29999999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="7">
+        <v>1286.4625000000001</v>
+      </c>
+      <c r="C120" s="8">
+        <v>1140.575</v>
+      </c>
+      <c r="D120" s="8">
+        <v>1140.575</v>
+      </c>
+      <c r="E120" s="8">
+        <v>6100.75</v>
+      </c>
+      <c r="F120" s="8">
+        <v>1140.575</v>
+      </c>
+      <c r="G120" s="8">
+        <v>1140.575</v>
+      </c>
+      <c r="H120" s="8">
+        <v>1140.575</v>
+      </c>
+      <c r="I120" s="8">
+        <v>583.54999999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="7">
+        <v>860.4708333333333</v>
+      </c>
+      <c r="C121" s="8">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="D121" s="8">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="E121" s="8">
+        <v>4080.5833333333335</v>
+      </c>
+      <c r="F121" s="8">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="G121" s="8">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="H121" s="8">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="I121" s="8">
+        <v>390.31666666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" s="7">
+        <v>1036.2833333333333</v>
+      </c>
+      <c r="C122" s="8">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="D122" s="8">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="E122" s="8">
+        <v>4914.333333333333</v>
+      </c>
+      <c r="F122" s="8">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="G122" s="8">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="H122" s="8">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="I122" s="8">
+        <v>470.06666666666661</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="7">
+        <v>1318.7958333333333</v>
+      </c>
+      <c r="C123" s="8">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="D123" s="8">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="E123" s="8">
+        <v>6254.083333333333</v>
+      </c>
+      <c r="F123" s="8">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="G123" s="8">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="H123" s="8">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="I123" s="8">
+        <v>598.21666666666658</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="7">
+        <v>2233.8291666666669</v>
+      </c>
+      <c r="C124" s="8">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="D124" s="8">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="E124" s="8">
+        <v>10593.416666666666</v>
+      </c>
+      <c r="F124" s="8">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="G124" s="8">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="H124" s="8">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="I124" s="8">
+        <v>1013.2833333333333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="7">
+        <v>9665.6458333333339</v>
+      </c>
+      <c r="C125" s="8">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="D125" s="8">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="E125" s="8">
+        <v>45837.083333333336</v>
+      </c>
+      <c r="F125" s="8">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="G125" s="8">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="H125" s="8">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="I125" s="8">
+        <v>4384.416666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="7">
+        <v>2273.8416666666667</v>
+      </c>
+      <c r="C126" s="8">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="E126" s="8">
+        <v>10783.166666666666</v>
+      </c>
+      <c r="F126" s="8">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="G126" s="8">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="H126" s="8">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="I126" s="8">
+        <v>1031.4333333333332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" s="7">
+        <v>1047.1958333333334</v>
+      </c>
+      <c r="C127" s="8">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="D127" s="8">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="E127" s="8">
+        <v>4966.083333333333</v>
+      </c>
+      <c r="F127" s="8">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="G127" s="8">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="H127" s="8">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="I127" s="8">
+        <v>475.01666666666665</v>
       </c>
     </row>
   </sheetData>
